--- a/app/src/main/assets/stationdata_new.xlsx
+++ b/app/src/main/assets/stationdata_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HyukSu\Desktop\git_new\SubwayAlarm-android-app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC16B4-85A4-4AD7-B630-28A08824969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77554315-AC95-4329-84D5-940FA2781AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역정보" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="619">
   <si>
     <t>건대입구</t>
   </si>
@@ -1255,501 +1255,491 @@
     <t>미금</t>
   </si>
   <si>
+    <t>오산대</t>
+  </si>
+  <si>
+    <t>진위</t>
+  </si>
+  <si>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>증산(명지대앞)</t>
+  </si>
+  <si>
+    <t>면목</t>
+  </si>
+  <si>
+    <t>사가정</t>
+  </si>
+  <si>
+    <t>신풍</t>
+  </si>
+  <si>
+    <t>남구로</t>
+  </si>
+  <si>
+    <t>주엽</t>
+  </si>
+  <si>
+    <t>산본</t>
+  </si>
+  <si>
+    <t>한대앞</t>
+  </si>
+  <si>
+    <t>안국</t>
+  </si>
+  <si>
+    <t>수진</t>
+  </si>
+  <si>
+    <t>구반포</t>
+  </si>
+  <si>
+    <t>소래포구</t>
+  </si>
+  <si>
+    <t>구룡</t>
+  </si>
+  <si>
+    <t>신갈</t>
+  </si>
+  <si>
+    <t>송내</t>
+  </si>
+  <si>
+    <t>망월사</t>
+  </si>
+  <si>
+    <t>도봉</t>
+  </si>
+  <si>
+    <t>외대앞</t>
+  </si>
+  <si>
+    <t>신이문</t>
+  </si>
+  <si>
+    <t>아산</t>
+  </si>
+  <si>
+    <t>배방</t>
+  </si>
+  <si>
+    <t>온양온천</t>
+  </si>
+  <si>
+    <t>고덕</t>
+  </si>
+  <si>
+    <t>독바위</t>
+  </si>
+  <si>
+    <t>새절(신사)</t>
+  </si>
+  <si>
+    <t>상수</t>
+  </si>
+  <si>
+    <t>보문</t>
+  </si>
+  <si>
+    <t>상월곡(한국과학기술연구원)</t>
+  </si>
+  <si>
+    <t>화랑대(서울여대입구)</t>
+  </si>
+  <si>
+    <t>중화</t>
+  </si>
+  <si>
+    <t>봉은사</t>
+  </si>
+  <si>
+    <t>서대문</t>
+  </si>
+  <si>
+    <t>원인재</t>
+  </si>
+  <si>
+    <t>대모산</t>
+  </si>
+  <si>
+    <t>구성</t>
+  </si>
+  <si>
+    <t>독산</t>
+  </si>
+  <si>
+    <t>원덕</t>
+  </si>
+  <si>
+    <t>동두천</t>
+  </si>
+  <si>
+    <t>회룡</t>
+  </si>
+  <si>
+    <t>봉명</t>
+  </si>
+  <si>
+    <t>안암(고대병원앞)</t>
+  </si>
+  <si>
+    <t>인천공항2터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마곡나루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청량리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고잔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한대앞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오목천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남풍산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남시청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남검단산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재시민의숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청계산입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수지구청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교중앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌고분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파나루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성백제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔촌오륜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙보훈병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지평</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청라국제도시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천공항1터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청량리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광운대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인하대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신길온천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터파크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합동청사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기주차장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천공항1터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라다이스 시티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔밭공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가오리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양사거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔샘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한산보국문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정릉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성신여대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.19 민주묘지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실새내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남위례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역촌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신논현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신답</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>까치산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정네거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천구청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도림천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응암순환(상선)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기흥</t>
-  </si>
-  <si>
-    <t>오산대</t>
-  </si>
-  <si>
-    <t>진위</t>
-  </si>
-  <si>
-    <t>가능</t>
-  </si>
-  <si>
-    <t>증산(명지대앞)</t>
-  </si>
-  <si>
-    <t>면목</t>
-  </si>
-  <si>
-    <t>사가정</t>
-  </si>
-  <si>
-    <t>신풍</t>
-  </si>
-  <si>
-    <t>남구로</t>
-  </si>
-  <si>
-    <t>주엽</t>
-  </si>
-  <si>
-    <t>산본</t>
-  </si>
-  <si>
-    <t>한대앞</t>
-  </si>
-  <si>
-    <t>안국</t>
-  </si>
-  <si>
-    <t>수진</t>
-  </si>
-  <si>
-    <t>구반포</t>
-  </si>
-  <si>
-    <t>소래포구</t>
-  </si>
-  <si>
-    <t>구룡</t>
-  </si>
-  <si>
-    <t>신갈</t>
-  </si>
-  <si>
-    <t>송내</t>
-  </si>
-  <si>
-    <t>망월사</t>
-  </si>
-  <si>
-    <t>도봉</t>
-  </si>
-  <si>
-    <t>외대앞</t>
-  </si>
-  <si>
-    <t>신이문</t>
-  </si>
-  <si>
-    <t>아산</t>
-  </si>
-  <si>
-    <t>배방</t>
-  </si>
-  <si>
-    <t>온양온천</t>
-  </si>
-  <si>
-    <t>고덕</t>
-  </si>
-  <si>
-    <t>독바위</t>
-  </si>
-  <si>
-    <t>새절(신사)</t>
-  </si>
-  <si>
-    <t>상수</t>
-  </si>
-  <si>
-    <t>보문</t>
-  </si>
-  <si>
-    <t>상월곡(한국과학기술연구원)</t>
-  </si>
-  <si>
-    <t>화랑대(서울여대입구)</t>
-  </si>
-  <si>
-    <t>중화</t>
-  </si>
-  <si>
-    <t>봉은사</t>
-  </si>
-  <si>
-    <t>서대문</t>
-  </si>
-  <si>
-    <t>원인재</t>
-  </si>
-  <si>
-    <t>대모산</t>
-  </si>
-  <si>
-    <t>구성</t>
-  </si>
-  <si>
-    <t>독산</t>
-  </si>
-  <si>
-    <t>원덕</t>
-  </si>
-  <si>
-    <t>동두천</t>
-  </si>
-  <si>
-    <t>회룡</t>
-  </si>
-  <si>
-    <t>봉명</t>
-  </si>
-  <si>
-    <t>쌍용(나사렛대)</t>
-  </si>
-  <si>
-    <t>안암(고대병원앞)</t>
-  </si>
-  <si>
-    <t>인천공항2터미널</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마곡나루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청량리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고잔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한대앞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오목천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남풍산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남시청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남검단산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탕정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양재시민의숲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청계산입구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수지구청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교중앙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산곡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석촌고분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석촌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>송파나루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한성백제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔촌오륜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙보훈병원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올림픽공원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지평</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청라국제도시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영종</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천공항1터미널</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청량리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광운대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인하대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신길온천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정왕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워터파크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>합동청사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장기주차장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천공항1터미널</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파라다이스 시티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북산한우이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔밭공원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가오리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼양사거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔샘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북한산보국문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정릉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성신여대입구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.19 민주묘지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠실새내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남위례</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역촌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공덕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신논현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>까치산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신정네거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양천구청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도림천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>응암순환(상선)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기흥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2028,10 +2018,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10,12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2041,6 +2027,18 @@
   </si>
   <si>
     <t>13,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한산우이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2437,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D579" sqref="D579"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2467,7 +2465,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2555,7 +2553,7 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2577,7 +2575,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2588,12 +2586,12 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B14" s="3">
         <v>113</v>
@@ -2610,7 +2608,7 @@
         <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2626,7 +2624,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B17" s="3">
         <v>116</v>
@@ -2659,7 +2657,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B20" s="3">
         <v>119</v>
@@ -2670,7 +2668,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B21" s="3">
         <v>120</v>
@@ -2687,7 +2685,7 @@
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2698,12 +2696,12 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B24" s="3">
         <v>123</v>
@@ -2714,7 +2712,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B25" s="3">
         <v>124</v>
@@ -2736,7 +2734,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B27" s="3">
         <v>126</v>
@@ -2747,7 +2745,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B28" s="3">
         <v>127</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B29" s="3">
         <v>128</v>
@@ -2780,7 +2778,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B31" s="3">
         <v>130</v>
@@ -2802,7 +2800,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B33" s="3">
         <v>132</v>
@@ -2813,7 +2811,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B34" s="3">
         <v>133</v>
@@ -2835,7 +2833,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B36" s="3">
         <v>135</v>
@@ -2846,7 +2844,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B37" s="3">
         <v>136</v>
@@ -2868,7 +2866,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B39" s="3">
         <v>138</v>
@@ -2890,7 +2888,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B41" s="3">
         <v>140</v>
@@ -2907,7 +2905,7 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2945,7 +2943,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B46" s="3">
         <v>145</v>
@@ -3006,7 +3004,7 @@
         <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3099,7 +3097,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B60" s="3">
         <v>159</v>
@@ -3121,18 +3119,18 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B62" s="3">
         <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B63" s="3">
         <v>162</v>
@@ -3149,7 +3147,7 @@
         <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3209,7 +3207,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B70" s="3">
         <v>169</v>
@@ -3220,7 +3218,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B71" s="3">
         <v>170</v>
@@ -3264,7 +3262,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B75" s="3">
         <v>174</v>
@@ -3275,7 +3273,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B76" s="3">
         <v>175</v>
@@ -3319,13 +3317,13 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B80" s="3">
         <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3347,7 +3345,7 @@
         <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3396,7 +3394,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B87" s="3">
         <v>186</v>
@@ -3440,13 +3438,13 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B91" s="3">
         <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3457,7 +3455,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>455</v>
+        <v>617</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3468,18 +3466,18 @@
         <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B94" s="3">
         <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3490,7 +3488,7 @@
         <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3501,7 +3499,7 @@
         <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3512,12 +3510,12 @@
         <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B98" s="3">
         <v>200</v>
@@ -3528,7 +3526,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B99" s="3">
         <v>201</v>
@@ -3539,7 +3537,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B100" s="3">
         <v>202</v>
@@ -3572,7 +3570,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B103" s="3">
         <v>205</v>
@@ -3583,7 +3581,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B104" s="3">
         <v>206</v>
@@ -3594,7 +3592,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B105" s="3">
         <v>207</v>
@@ -3605,7 +3603,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B106" s="3">
         <v>208</v>
@@ -3627,18 +3625,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B108" s="3">
         <v>210</v>
       </c>
       <c r="C108" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B109" s="3">
         <v>211</v>
@@ -3649,7 +3647,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B110" s="3">
         <v>212</v>
@@ -3693,7 +3691,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B114" s="3">
         <v>216</v>
@@ -3715,7 +3713,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B116" s="3">
         <v>218</v>
@@ -3748,7 +3746,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B119" s="3">
         <v>221</v>
@@ -3759,7 +3757,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B120" s="3">
         <v>222</v>
@@ -3781,7 +3779,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B122" s="3">
         <v>224</v>
@@ -3803,7 +3801,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B124" s="3">
         <v>226</v>
@@ -3820,12 +3818,12 @@
         <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B126" s="3">
         <v>228</v>
@@ -3869,7 +3867,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B130" s="3">
         <v>232</v>
@@ -3886,7 +3884,7 @@
         <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3902,7 +3900,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B133" s="3">
         <v>235</v>
@@ -3913,7 +3911,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B134" s="3">
         <v>236</v>
@@ -3935,7 +3933,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B136" s="3">
         <v>238</v>
@@ -3946,7 +3944,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B137" s="3">
         <v>239</v>
@@ -3957,7 +3955,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B138" s="3">
         <v>240</v>
@@ -3968,7 +3966,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B139" s="3">
         <v>241</v>
@@ -3996,7 +3994,7 @@
         <v>243</v>
       </c>
       <c r="C141" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4007,7 +4005,7 @@
         <v>244</v>
       </c>
       <c r="C142" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4023,7 +4021,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B144" s="3">
         <v>246</v>
@@ -4034,13 +4032,13 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B145" s="3">
         <v>247</v>
       </c>
       <c r="C145" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4051,7 +4049,7 @@
         <v>248</v>
       </c>
       <c r="C146" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4062,7 +4060,7 @@
         <v>249</v>
       </c>
       <c r="C147" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4073,7 +4071,7 @@
         <v>250</v>
       </c>
       <c r="C148" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4089,13 +4087,13 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B150" s="3">
         <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4133,7 +4131,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B154" s="3">
         <v>305</v>
@@ -4177,7 +4175,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B158" s="3">
         <v>309</v>
@@ -4210,7 +4208,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B161" s="3">
         <v>312</v>
@@ -4221,7 +4219,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B162" s="3">
         <v>313</v>
@@ -4232,7 +4230,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B163" s="3">
         <v>314</v>
@@ -4265,7 +4263,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B166" s="3">
         <v>317</v>
@@ -4293,12 +4291,12 @@
         <v>319</v>
       </c>
       <c r="C168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B169" s="3">
         <v>320</v>
@@ -4309,7 +4307,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B170" s="3">
         <v>321</v>
@@ -4320,7 +4318,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B171" s="3">
         <v>322</v>
@@ -4342,7 +4340,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B173" s="3">
         <v>324</v>
@@ -4364,7 +4362,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B175" s="3">
         <v>326</v>
@@ -4386,7 +4384,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B177" s="3">
         <v>328</v>
@@ -4408,7 +4406,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B179" s="3">
         <v>330</v>
@@ -4419,7 +4417,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B180" s="3">
         <v>331</v>
@@ -4441,7 +4439,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B182" s="3">
         <v>333</v>
@@ -4452,7 +4450,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B183" s="3">
         <v>334</v>
@@ -4463,7 +4461,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B184" s="3">
         <v>335</v>
@@ -4507,7 +4505,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B188" s="3">
         <v>339</v>
@@ -4518,7 +4516,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B189" s="3">
         <v>340</v>
@@ -4529,7 +4527,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B190" s="3">
         <v>341</v>
@@ -4551,7 +4549,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B192" s="3">
         <v>343</v>
@@ -4562,7 +4560,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B193" s="3">
         <v>400</v>
@@ -4573,7 +4571,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B194" s="3">
         <v>401</v>
@@ -4584,7 +4582,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B195" s="3">
         <v>402</v>
@@ -4595,7 +4593,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B196" s="3">
         <v>403</v>
@@ -4606,7 +4604,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B197" s="3">
         <v>404</v>
@@ -4617,7 +4615,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B198" s="3">
         <v>405</v>
@@ -4628,7 +4626,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B199" s="3">
         <v>406</v>
@@ -4639,13 +4637,13 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B200" s="3">
         <v>407</v>
       </c>
       <c r="C200" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4694,18 +4692,18 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B205" s="3">
         <v>412</v>
       </c>
       <c r="C205" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B206" s="3">
         <v>413</v>
@@ -4771,7 +4769,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B212" s="3">
         <v>419</v>
@@ -4815,7 +4813,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B216" s="3">
         <v>423</v>
@@ -4826,7 +4824,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B217" s="3">
         <v>424</v>
@@ -4837,7 +4835,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B218" s="3">
         <v>425</v>
@@ -4848,7 +4846,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B219" s="3">
         <v>426</v>
@@ -4870,7 +4868,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B221" s="3">
         <v>428</v>
@@ -4892,7 +4890,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B223" s="3">
         <v>430</v>
@@ -4925,7 +4923,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B226" s="3">
         <v>433</v>
@@ -4936,7 +4934,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B227" s="3">
         <v>434</v>
@@ -4947,7 +4945,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B228" s="3">
         <v>435</v>
@@ -4980,7 +4978,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B231" s="3">
         <v>438</v>
@@ -5002,7 +5000,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B233" s="3">
         <v>440</v>
@@ -5046,7 +5044,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B237" s="3">
         <v>444</v>
@@ -5057,7 +5055,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B238" s="3">
         <v>445</v>
@@ -5090,7 +5088,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B241" s="3">
         <v>500</v>
@@ -5112,7 +5110,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B243" s="3">
         <v>502</v>
@@ -5145,7 +5143,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B246" s="3">
         <v>505</v>
@@ -5178,7 +5176,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B249" s="3">
         <v>508</v>
@@ -5222,7 +5220,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B253" s="3">
         <v>512</v>
@@ -5233,7 +5231,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B254" s="3">
         <v>513</v>
@@ -5255,7 +5253,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B256" s="3">
         <v>515</v>
@@ -5266,13 +5264,13 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B257" s="3">
         <v>516</v>
       </c>
       <c r="C257" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5299,7 +5297,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B260" s="3">
         <v>519</v>
@@ -5321,7 +5319,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B262" s="3">
         <v>521</v>
@@ -5338,7 +5336,7 @@
         <v>522</v>
       </c>
       <c r="C263" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5354,7 +5352,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B265" s="3">
         <v>524</v>
@@ -5365,7 +5363,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B266" s="3">
         <v>525</v>
@@ -5376,7 +5374,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B267" s="3">
         <v>526</v>
@@ -5387,7 +5385,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B268" s="3">
         <v>527</v>
@@ -5398,7 +5396,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B269" s="3">
         <v>528</v>
@@ -5420,7 +5418,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B271" s="3">
         <v>530</v>
@@ -5464,7 +5462,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B275" s="3">
         <v>534</v>
@@ -5497,7 +5495,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B278" s="3">
         <v>537</v>
@@ -5514,7 +5512,7 @@
         <v>538</v>
       </c>
       <c r="C279" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5552,7 +5550,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B283" s="3">
         <v>542</v>
@@ -5591,7 +5589,7 @@
         <v>545</v>
       </c>
       <c r="C286" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5629,13 +5627,13 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B290" s="3">
         <v>549</v>
       </c>
       <c r="C290" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5657,7 +5655,7 @@
         <v>551</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5668,7 +5666,7 @@
         <v>552</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5679,7 +5677,7 @@
         <v>553</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5690,7 +5688,7 @@
         <v>554</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5701,7 +5699,7 @@
         <v>555</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5712,12 +5710,12 @@
         <v>600</v>
       </c>
       <c r="C297" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B298" s="3">
         <v>601</v>
@@ -5734,12 +5732,12 @@
         <v>602</v>
       </c>
       <c r="C299" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B300" s="3">
         <v>603</v>
@@ -5756,7 +5754,7 @@
         <v>604</v>
       </c>
       <c r="C301" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5767,7 +5765,7 @@
         <v>605</v>
       </c>
       <c r="C302" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5778,7 +5776,7 @@
         <v>606</v>
       </c>
       <c r="C303" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5789,12 +5787,12 @@
         <v>607</v>
       </c>
       <c r="C304" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B305" s="3">
         <v>608</v>
@@ -5838,7 +5836,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B309" s="3">
         <v>612</v>
@@ -5855,7 +5853,7 @@
         <v>613</v>
       </c>
       <c r="C310" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5882,7 +5880,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B313" s="3">
         <v>616</v>
@@ -5893,7 +5891,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B314" s="3">
         <v>617</v>
@@ -5904,7 +5902,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B315" s="3">
         <v>618</v>
@@ -5948,7 +5946,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B319" s="3">
         <v>622</v>
@@ -5959,7 +5957,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B320" s="3">
         <v>623</v>
@@ -5970,7 +5968,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B321" s="3">
         <v>624</v>
@@ -5981,7 +5979,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B322" s="3">
         <v>625</v>
@@ -5992,7 +5990,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B323" s="3">
         <v>626</v>
@@ -6014,13 +6012,13 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B325" s="3">
         <v>628</v>
       </c>
       <c r="C325" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6031,7 +6029,7 @@
         <v>629</v>
       </c>
       <c r="C326" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6064,12 +6062,12 @@
         <v>632</v>
       </c>
       <c r="C329" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B330" s="3">
         <v>633</v>
@@ -6080,7 +6078,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B331" s="3">
         <v>634</v>
@@ -6091,7 +6089,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B332" s="3">
         <v>635</v>
@@ -6108,7 +6106,7 @@
         <v>636</v>
       </c>
       <c r="C333" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6124,13 +6122,13 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B335" s="3">
         <v>638</v>
       </c>
       <c r="C335" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6146,7 +6144,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B337" s="3">
         <v>701</v>
@@ -6179,7 +6177,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B340" s="3">
         <v>704</v>
@@ -6190,7 +6188,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B341" s="3">
         <v>705</v>
@@ -6223,7 +6221,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B344" s="3">
         <v>708</v>
@@ -6251,12 +6249,12 @@
         <v>710</v>
       </c>
       <c r="C346" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B347" s="3">
         <v>711</v>
@@ -6273,7 +6271,7 @@
         <v>712</v>
       </c>
       <c r="C348" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6284,7 +6282,7 @@
         <v>713</v>
       </c>
       <c r="C349" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6311,7 +6309,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B352" s="3">
         <v>716</v>
@@ -6333,7 +6331,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B354" s="3">
         <v>718</v>
@@ -6366,7 +6364,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B357" s="3">
         <v>721</v>
@@ -6388,7 +6386,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B359" s="3">
         <v>723</v>
@@ -6410,7 +6408,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B361" s="3">
         <v>725</v>
@@ -6421,7 +6419,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B362" s="3">
         <v>726</v>
@@ -6432,7 +6430,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B363" s="3">
         <v>727</v>
@@ -6515,12 +6513,12 @@
         <v>734</v>
       </c>
       <c r="C370" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B371" s="3">
         <v>735</v>
@@ -6537,12 +6535,12 @@
         <v>736</v>
       </c>
       <c r="C372" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B373" s="3">
         <v>737</v>
@@ -6586,7 +6584,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B377" s="3">
         <v>741</v>
@@ -6702,7 +6700,7 @@
         <v>751</v>
       </c>
       <c r="C387" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6713,7 +6711,7 @@
         <v>752</v>
       </c>
       <c r="C388" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6729,7 +6727,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B390" s="3">
         <v>801</v>
@@ -6762,7 +6760,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B393" s="3">
         <v>804</v>
@@ -6773,7 +6771,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B394" s="3">
         <v>805</v>
@@ -6795,7 +6793,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B396" s="3">
         <v>807</v>
@@ -6828,7 +6826,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B399" s="3">
         <v>810</v>
@@ -6845,7 +6843,7 @@
         <v>811</v>
       </c>
       <c r="C400" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6872,7 +6870,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B403" s="3">
         <v>814</v>
@@ -6900,12 +6898,12 @@
         <v>816</v>
       </c>
       <c r="C405" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B406" s="3">
         <v>817</v>
@@ -6927,7 +6925,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B408" s="3">
         <v>901</v>
@@ -6960,7 +6958,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B411" s="3">
         <v>904</v>
@@ -7048,7 +7046,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B419" s="3">
         <v>912</v>
@@ -7070,7 +7068,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B421" s="3">
         <v>914</v>
@@ -7092,7 +7090,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B423" s="3">
         <v>916</v>
@@ -7125,7 +7123,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B426" s="3">
         <v>919</v>
@@ -7142,12 +7140,12 @@
         <v>920</v>
       </c>
       <c r="C427" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B428" s="3">
         <v>921</v>
@@ -7158,7 +7156,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B429" s="3">
         <v>922</v>
@@ -7180,7 +7178,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B431" s="3">
         <v>924</v>
@@ -7202,7 +7200,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B433" s="3">
         <v>926</v>
@@ -7230,12 +7228,12 @@
         <v>928</v>
       </c>
       <c r="C435" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B436" s="3">
         <v>929</v>
@@ -7252,7 +7250,7 @@
         <v>930</v>
       </c>
       <c r="C437" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7263,18 +7261,18 @@
         <v>931</v>
       </c>
       <c r="C438" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B439" s="3">
         <v>932</v>
       </c>
       <c r="C439" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7285,7 +7283,7 @@
         <v>933</v>
       </c>
       <c r="C440" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7296,7 +7294,7 @@
         <v>934</v>
       </c>
       <c r="C441" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7307,7 +7305,7 @@
         <v>935</v>
       </c>
       <c r="C442" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7318,7 +7316,7 @@
         <v>936</v>
       </c>
       <c r="C443" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7329,7 +7327,7 @@
         <v>937</v>
       </c>
       <c r="C444" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7466,7 +7464,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B457" s="3">
         <v>1012</v>
@@ -7498,14 +7496,14 @@
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="6" t="s">
-        <v>616</v>
+      <c r="A460" s="6">
+        <v>10</v>
       </c>
       <c r="B460" s="3">
         <v>1015</v>
       </c>
       <c r="C460" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7532,7 +7530,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B463" s="3">
         <v>1018</v>
@@ -7554,7 +7552,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B465" s="3">
         <v>1020</v>
@@ -7576,7 +7574,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B467" s="3">
         <v>1022</v>
@@ -7587,7 +7585,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B468" s="3">
         <v>1023</v>
@@ -7598,7 +7596,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B469" s="3">
         <v>1024</v>
@@ -7609,7 +7607,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B470" s="3">
         <v>1025</v>
@@ -7642,7 +7640,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B473" s="3">
         <v>1028</v>
@@ -7664,7 +7662,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B475" s="3">
         <v>1030</v>
@@ -7675,7 +7673,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B476" s="3">
         <v>1031</v>
@@ -7686,7 +7684,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B477" s="3">
         <v>1032</v>
@@ -7697,7 +7695,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B478" s="3">
         <v>1033</v>
@@ -7708,7 +7706,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B479" s="3">
         <v>1034</v>
@@ -7719,7 +7717,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B480" s="3">
         <v>1035</v>
@@ -7873,7 +7871,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B494" s="3">
         <v>1049</v>
@@ -7890,7 +7888,7 @@
         <v>1050</v>
       </c>
       <c r="C495" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7912,7 +7910,7 @@
         <v>1052</v>
       </c>
       <c r="C497" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7928,7 +7926,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B499" s="3">
         <v>1054</v>
@@ -7939,7 +7937,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B500" s="3">
         <v>1100</v>
@@ -7950,18 +7948,18 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B501" s="3">
         <v>1101</v>
       </c>
       <c r="C501" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B502" s="3">
         <v>1102</v>
@@ -7972,7 +7970,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B503" s="3">
         <v>1103</v>
@@ -7983,18 +7981,18 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B504" s="3">
         <v>1104</v>
       </c>
       <c r="C504" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B505" s="3">
         <v>1105</v>
@@ -8033,7 +8031,7 @@
         <v>1108</v>
       </c>
       <c r="C508" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8044,7 +8042,7 @@
         <v>1109</v>
       </c>
       <c r="C509" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8071,13 +8069,13 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B512" s="3">
         <v>1112</v>
       </c>
       <c r="C512" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8088,56 +8086,56 @@
         <v>1113</v>
       </c>
       <c r="C513" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B514" s="3">
         <v>1200</v>
       </c>
       <c r="C514" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B515" s="3">
         <v>1201</v>
       </c>
       <c r="C515" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B516" s="3">
         <v>1202</v>
       </c>
       <c r="C516" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B517" s="3">
         <v>1203</v>
       </c>
       <c r="C517" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B518" s="3">
         <v>1204</v>
@@ -8148,7 +8146,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B519" s="3">
         <v>1205</v>
@@ -8159,7 +8157,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B520" s="3">
         <v>1206</v>
@@ -8368,18 +8366,18 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B539" s="4">
         <v>1300</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B540" s="3">
         <v>1301</v>
@@ -8412,7 +8410,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B543" s="3">
         <v>1304</v>
@@ -8423,7 +8421,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B544" s="3">
         <v>1305</v>
@@ -8434,7 +8432,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B545" s="4">
         <v>1306</v>
@@ -8456,7 +8454,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B547" s="3">
         <v>1308</v>
@@ -8473,7 +8471,7 @@
         <v>1309</v>
       </c>
       <c r="C548" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -8495,12 +8493,12 @@
         <v>1311</v>
       </c>
       <c r="C550" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B551" s="4">
         <v>1312</v>
@@ -8511,7 +8509,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B552" s="3">
         <v>1313</v>
@@ -8544,7 +8542,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B555" s="3">
         <v>1316</v>
@@ -8599,7 +8597,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B560" s="4">
         <v>1321</v>
@@ -8610,7 +8608,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B561" s="3">
         <v>1322</v>
@@ -8660,7 +8658,7 @@
         <v>1326</v>
       </c>
       <c r="C565" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -8671,18 +8669,18 @@
         <v>1327</v>
       </c>
       <c r="C566" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="567" spans="1:3">
-      <c r="A567" s="6" t="s">
-        <v>616</v>
+      <c r="A567" s="6">
+        <v>13</v>
       </c>
       <c r="B567" s="3">
         <v>1328</v>
       </c>
       <c r="C567" t="s">
-        <v>411</v>
+        <v>543</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -8764,7 +8762,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B575" s="4">
         <v>1336</v>
@@ -8781,7 +8779,7 @@
         <v>1337</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -8792,7 +8790,7 @@
         <v>1338</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -8803,7 +8801,7 @@
         <v>1339</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -8814,7 +8812,7 @@
         <v>1340</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -8825,89 +8823,89 @@
         <v>1341</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B581" s="4">
         <v>1342</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B582" s="3">
         <v>1343</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B583" s="3">
         <v>1344</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B584" s="4">
         <v>1345</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B585" s="3">
         <v>1346</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B586" s="3">
         <v>1347</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B587" s="4">
         <v>1348</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B588" s="3">
         <v>1349</v>
@@ -8946,7 +8944,7 @@
         <v>1352</v>
       </c>
       <c r="C591" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -8990,7 +8988,7 @@
         <v>1356</v>
       </c>
       <c r="C595" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -9023,7 +9021,7 @@
         <v>1359</v>
       </c>
       <c r="C598" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -9034,7 +9032,7 @@
         <v>1360</v>
       </c>
       <c r="C599" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -9045,56 +9043,56 @@
         <v>1361</v>
       </c>
       <c r="C600" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B601" s="3">
         <v>1362</v>
       </c>
       <c r="C601" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B602" s="3">
         <v>1400</v>
       </c>
       <c r="C602" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B603" s="3">
         <v>1401</v>
       </c>
       <c r="C603" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B604" s="3">
         <v>1402</v>
       </c>
       <c r="C604" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B605" s="3">
         <v>1403</v>
@@ -9105,13 +9103,13 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B606" s="3">
         <v>1404</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -9122,7 +9120,7 @@
         <v>1405</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -9133,7 +9131,7 @@
         <v>1406</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -9144,29 +9142,29 @@
         <v>1407</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B610" s="3">
         <v>1408</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B611" s="3">
         <v>1409</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -9177,7 +9175,7 @@
         <v>1410</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -9188,7 +9186,7 @@
         <v>1411</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -9199,7 +9197,7 @@
         <v>1412</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -9210,7 +9208,7 @@
         <v>1413</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -9221,7 +9219,7 @@
         <v>1414</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -9232,18 +9230,18 @@
         <v>1415</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B618" s="4">
         <v>1500</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -9254,7 +9252,7 @@
         <v>1501</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -9265,7 +9263,7 @@
         <v>1502</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -9276,7 +9274,7 @@
         <v>1503</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -9287,7 +9285,7 @@
         <v>1504</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -9298,12 +9296,12 @@
         <v>1505</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B624" s="4">
         <v>1600</v>
@@ -9314,24 +9312,24 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B625" s="4">
         <v>1601</v>
       </c>
       <c r="C625" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B626" s="4">
         <v>1602</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -9342,7 +9340,7 @@
         <v>1603</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -9353,7 +9351,7 @@
         <v>1604</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -9364,7 +9362,7 @@
         <v>1605</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -9375,7 +9373,7 @@
         <v>1606</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -9386,7 +9384,7 @@
         <v>1607</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -9397,7 +9395,7 @@
         <v>1608</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -9408,7 +9406,7 @@
         <v>1609</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -9419,7 +9417,7 @@
         <v>1610</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -9430,7 +9428,7 @@
         <v>1611</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -9441,7 +9439,7 @@
         <v>1612</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/stationdata_new.xlsx
+++ b/app/src/main/assets/stationdata_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HyukSu\Desktop\git_new\SubwayAlarm-android-app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77554315-AC95-4329-84D5-940FA2781AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420E727-30A7-4E83-8545-FE4B107C3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역정보" sheetId="2" r:id="rId1"/>
@@ -1336,709 +1336,710 @@
     <t>독바위</t>
   </si>
   <si>
+    <t>상수</t>
+  </si>
+  <si>
+    <t>보문</t>
+  </si>
+  <si>
+    <t>상월곡(한국과학기술연구원)</t>
+  </si>
+  <si>
+    <t>화랑대(서울여대입구)</t>
+  </si>
+  <si>
+    <t>중화</t>
+  </si>
+  <si>
+    <t>봉은사</t>
+  </si>
+  <si>
+    <t>서대문</t>
+  </si>
+  <si>
+    <t>원인재</t>
+  </si>
+  <si>
+    <t>대모산</t>
+  </si>
+  <si>
+    <t>구성</t>
+  </si>
+  <si>
+    <t>독산</t>
+  </si>
+  <si>
+    <t>원덕</t>
+  </si>
+  <si>
+    <t>동두천</t>
+  </si>
+  <si>
+    <t>회룡</t>
+  </si>
+  <si>
+    <t>봉명</t>
+  </si>
+  <si>
+    <t>안암(고대병원앞)</t>
+  </si>
+  <si>
+    <t>인천공항2터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마곡나루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청량리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고잔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한대앞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오목천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남풍산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남시청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남검단산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재시민의숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청계산입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수지구청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교중앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌고분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파나루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성백제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔촌오륜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙보훈병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지평</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청라국제도시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천공항1터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청량리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광운대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인하대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신길온천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터파크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합동청사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기주차장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천공항1터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라다이스 시티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔밭공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가오리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양사거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔샘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한산보국문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정릉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성신여대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.19 민주묘지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실새내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남위례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역촌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신논현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신답</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>까치산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정네거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천구청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도림천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응암순환(상선)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기흥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용답</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신도림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,12,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,10,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,12,13</t>
+  </si>
+  <si>
+    <t>4,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한산우이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>새절(신사)</t>
-  </si>
-  <si>
-    <t>상수</t>
-  </si>
-  <si>
-    <t>보문</t>
-  </si>
-  <si>
-    <t>상월곡(한국과학기술연구원)</t>
-  </si>
-  <si>
-    <t>화랑대(서울여대입구)</t>
-  </si>
-  <si>
-    <t>중화</t>
-  </si>
-  <si>
-    <t>봉은사</t>
-  </si>
-  <si>
-    <t>서대문</t>
-  </si>
-  <si>
-    <t>원인재</t>
-  </si>
-  <si>
-    <t>대모산</t>
-  </si>
-  <si>
-    <t>구성</t>
-  </si>
-  <si>
-    <t>독산</t>
-  </si>
-  <si>
-    <t>원덕</t>
-  </si>
-  <si>
-    <t>동두천</t>
-  </si>
-  <si>
-    <t>회룡</t>
-  </si>
-  <si>
-    <t>봉명</t>
-  </si>
-  <si>
-    <t>안암(고대병원앞)</t>
-  </si>
-  <si>
-    <t>인천공항2터미널</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마곡나루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청량리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고잔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한대앞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오목천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남풍산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남시청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남검단산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탕정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양재시민의숲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청계산입구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수지구청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교중앙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산곡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석촌고분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석촌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>송파나루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한성백제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔촌오륜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙보훈병원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올림픽공원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지평</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청라국제도시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영종</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천공항1터미널</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청량리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광운대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인하대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신길온천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정왕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워터파크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>합동청사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장기주차장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천공항1터미널</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파라다이스 시티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔밭공원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가오리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼양사거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔샘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북한산보국문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정릉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성신여대입구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.19 민주묘지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠실새내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남위례</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역촌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공덕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신논현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>까치산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신정네거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양천구청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도림천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>응암순환(상선)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기흥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신도림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신창</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,12,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,5,10,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,7,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,12,13</t>
-  </si>
-  <si>
-    <t>4,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,9,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,10,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북한산우이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍용(나사렛대)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2435,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2465,7 +2466,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2575,7 +2576,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2591,7 +2592,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B14" s="3">
         <v>113</v>
@@ -2624,7 +2625,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B17" s="3">
         <v>116</v>
@@ -2657,7 +2658,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B20" s="3">
         <v>119</v>
@@ -2668,7 +2669,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B21" s="3">
         <v>120</v>
@@ -2701,7 +2702,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B24" s="3">
         <v>123</v>
@@ -2712,7 +2713,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B25" s="3">
         <v>124</v>
@@ -2734,7 +2735,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B27" s="3">
         <v>126</v>
@@ -2745,7 +2746,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B28" s="3">
         <v>127</v>
@@ -2756,7 +2757,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B29" s="3">
         <v>128</v>
@@ -2778,7 +2779,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B31" s="3">
         <v>130</v>
@@ -2800,7 +2801,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B33" s="3">
         <v>132</v>
@@ -2811,7 +2812,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B34" s="3">
         <v>133</v>
@@ -2833,7 +2834,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B36" s="3">
         <v>135</v>
@@ -2844,7 +2845,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B37" s="3">
         <v>136</v>
@@ -2866,7 +2867,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B39" s="3">
         <v>138</v>
@@ -2888,7 +2889,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B41" s="3">
         <v>140</v>
@@ -2905,7 +2906,7 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2943,7 +2944,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B46" s="3">
         <v>145</v>
@@ -3097,7 +3098,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B60" s="3">
         <v>159</v>
@@ -3119,18 +3120,18 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B62" s="3">
         <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B63" s="3">
         <v>162</v>
@@ -3147,7 +3148,7 @@
         <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3207,7 +3208,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B70" s="3">
         <v>169</v>
@@ -3218,7 +3219,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B71" s="3">
         <v>170</v>
@@ -3262,7 +3263,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B75" s="3">
         <v>174</v>
@@ -3273,7 +3274,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B76" s="3">
         <v>175</v>
@@ -3317,7 +3318,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B80" s="3">
         <v>179</v>
@@ -3394,7 +3395,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B87" s="3">
         <v>186</v>
@@ -3438,13 +3439,13 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B91" s="3">
         <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3455,7 +3456,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3471,13 +3472,13 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B94" s="3">
         <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3510,12 +3511,12 @@
         <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B98" s="3">
         <v>200</v>
@@ -3526,7 +3527,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B99" s="3">
         <v>201</v>
@@ -3537,7 +3538,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B100" s="3">
         <v>202</v>
@@ -3570,7 +3571,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B103" s="3">
         <v>205</v>
@@ -3581,7 +3582,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B104" s="3">
         <v>206</v>
@@ -3592,7 +3593,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B105" s="3">
         <v>207</v>
@@ -3603,7 +3604,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B106" s="3">
         <v>208</v>
@@ -3625,18 +3626,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B108" s="3">
         <v>210</v>
       </c>
       <c r="C108" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B109" s="3">
         <v>211</v>
@@ -3647,7 +3648,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B110" s="3">
         <v>212</v>
@@ -3691,7 +3692,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B114" s="3">
         <v>216</v>
@@ -3713,7 +3714,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B116" s="3">
         <v>218</v>
@@ -3746,7 +3747,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B119" s="3">
         <v>221</v>
@@ -3757,7 +3758,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B120" s="3">
         <v>222</v>
@@ -3779,7 +3780,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B122" s="3">
         <v>224</v>
@@ -3801,7 +3802,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B124" s="3">
         <v>226</v>
@@ -3818,12 +3819,12 @@
         <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B126" s="3">
         <v>228</v>
@@ -3867,7 +3868,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B130" s="3">
         <v>232</v>
@@ -3884,7 +3885,7 @@
         <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3900,7 +3901,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B133" s="3">
         <v>235</v>
@@ -3911,7 +3912,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B134" s="3">
         <v>236</v>
@@ -3933,7 +3934,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B136" s="3">
         <v>238</v>
@@ -3944,7 +3945,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B137" s="3">
         <v>239</v>
@@ -3955,7 +3956,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B138" s="3">
         <v>240</v>
@@ -3966,7 +3967,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B139" s="3">
         <v>241</v>
@@ -3994,7 +3995,7 @@
         <v>243</v>
       </c>
       <c r="C141" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4005,7 +4006,7 @@
         <v>244</v>
       </c>
       <c r="C142" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4021,7 +4022,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B144" s="3">
         <v>246</v>
@@ -4032,13 +4033,13 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B145" s="3">
         <v>247</v>
       </c>
       <c r="C145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4049,7 +4050,7 @@
         <v>248</v>
       </c>
       <c r="C146" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4060,7 +4061,7 @@
         <v>249</v>
       </c>
       <c r="C147" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4071,7 +4072,7 @@
         <v>250</v>
       </c>
       <c r="C148" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4087,7 +4088,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B150" s="3">
         <v>301</v>
@@ -4131,7 +4132,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B154" s="3">
         <v>305</v>
@@ -4175,7 +4176,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B158" s="3">
         <v>309</v>
@@ -4208,7 +4209,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B161" s="3">
         <v>312</v>
@@ -4219,7 +4220,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B162" s="3">
         <v>313</v>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B163" s="3">
         <v>314</v>
@@ -4263,7 +4264,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B166" s="3">
         <v>317</v>
@@ -4296,7 +4297,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B169" s="3">
         <v>320</v>
@@ -4307,7 +4308,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B170" s="3">
         <v>321</v>
@@ -4318,7 +4319,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B171" s="3">
         <v>322</v>
@@ -4340,7 +4341,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B173" s="3">
         <v>324</v>
@@ -4362,7 +4363,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B175" s="3">
         <v>326</v>
@@ -4384,7 +4385,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B177" s="3">
         <v>328</v>
@@ -4406,7 +4407,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B179" s="3">
         <v>330</v>
@@ -4417,7 +4418,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B180" s="3">
         <v>331</v>
@@ -4439,7 +4440,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B182" s="3">
         <v>333</v>
@@ -4450,7 +4451,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B183" s="3">
         <v>334</v>
@@ -4461,7 +4462,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B184" s="3">
         <v>335</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B188" s="3">
         <v>339</v>
@@ -4516,7 +4517,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B189" s="3">
         <v>340</v>
@@ -4527,7 +4528,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B190" s="3">
         <v>341</v>
@@ -4549,7 +4550,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B192" s="3">
         <v>343</v>
@@ -4560,7 +4561,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B193" s="3">
         <v>400</v>
@@ -4571,7 +4572,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B194" s="3">
         <v>401</v>
@@ -4582,7 +4583,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B195" s="3">
         <v>402</v>
@@ -4593,7 +4594,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B196" s="3">
         <v>403</v>
@@ -4604,7 +4605,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B197" s="3">
         <v>404</v>
@@ -4615,7 +4616,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B198" s="3">
         <v>405</v>
@@ -4626,7 +4627,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B199" s="3">
         <v>406</v>
@@ -4637,7 +4638,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B200" s="3">
         <v>407</v>
@@ -4692,7 +4693,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B205" s="3">
         <v>412</v>
@@ -4703,7 +4704,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B206" s="3">
         <v>413</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B212" s="3">
         <v>419</v>
@@ -4813,7 +4814,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B216" s="3">
         <v>423</v>
@@ -4824,7 +4825,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B217" s="3">
         <v>424</v>
@@ -4835,7 +4836,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B218" s="3">
         <v>425</v>
@@ -4846,7 +4847,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B219" s="3">
         <v>426</v>
@@ -4868,7 +4869,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B221" s="3">
         <v>428</v>
@@ -4890,7 +4891,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B223" s="3">
         <v>430</v>
@@ -4923,7 +4924,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B226" s="3">
         <v>433</v>
@@ -4934,7 +4935,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B227" s="3">
         <v>434</v>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B228" s="3">
         <v>435</v>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B231" s="3">
         <v>438</v>
@@ -5000,7 +5001,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B233" s="3">
         <v>440</v>
@@ -5044,7 +5045,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B237" s="3">
         <v>444</v>
@@ -5055,7 +5056,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B238" s="3">
         <v>445</v>
@@ -5088,7 +5089,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B241" s="3">
         <v>500</v>
@@ -5110,7 +5111,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B243" s="3">
         <v>502</v>
@@ -5143,7 +5144,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B246" s="3">
         <v>505</v>
@@ -5176,7 +5177,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B249" s="3">
         <v>508</v>
@@ -5220,7 +5221,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B253" s="3">
         <v>512</v>
@@ -5231,7 +5232,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B254" s="3">
         <v>513</v>
@@ -5253,7 +5254,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B256" s="3">
         <v>515</v>
@@ -5264,13 +5265,13 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B257" s="3">
         <v>516</v>
       </c>
       <c r="C257" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5297,7 +5298,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B260" s="3">
         <v>519</v>
@@ -5319,7 +5320,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B262" s="3">
         <v>521</v>
@@ -5336,7 +5337,7 @@
         <v>522</v>
       </c>
       <c r="C263" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5352,7 +5353,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B265" s="3">
         <v>524</v>
@@ -5363,7 +5364,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B266" s="3">
         <v>525</v>
@@ -5374,7 +5375,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B267" s="3">
         <v>526</v>
@@ -5385,7 +5386,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B268" s="3">
         <v>527</v>
@@ -5396,7 +5397,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B269" s="3">
         <v>528</v>
@@ -5418,7 +5419,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B271" s="3">
         <v>530</v>
@@ -5462,7 +5463,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B275" s="3">
         <v>534</v>
@@ -5495,7 +5496,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B278" s="3">
         <v>537</v>
@@ -5512,7 +5513,7 @@
         <v>538</v>
       </c>
       <c r="C279" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5550,7 +5551,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B283" s="3">
         <v>542</v>
@@ -5589,7 +5590,7 @@
         <v>545</v>
       </c>
       <c r="C286" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5627,7 +5628,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B290" s="3">
         <v>549</v>
@@ -5655,7 +5656,7 @@
         <v>551</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5666,7 +5667,7 @@
         <v>552</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5677,7 +5678,7 @@
         <v>553</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5688,7 +5689,7 @@
         <v>554</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5699,7 +5700,7 @@
         <v>555</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5710,12 +5711,12 @@
         <v>600</v>
       </c>
       <c r="C297" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B298" s="3">
         <v>601</v>
@@ -5737,7 +5738,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B300" s="3">
         <v>603</v>
@@ -5754,7 +5755,7 @@
         <v>604</v>
       </c>
       <c r="C301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5765,7 +5766,7 @@
         <v>605</v>
       </c>
       <c r="C302" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5776,7 +5777,7 @@
         <v>606</v>
       </c>
       <c r="C303" t="s">
-        <v>438</v>
+        <v>617</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5792,7 +5793,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B305" s="3">
         <v>608</v>
@@ -5836,7 +5837,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B309" s="3">
         <v>612</v>
@@ -5853,7 +5854,7 @@
         <v>613</v>
       </c>
       <c r="C310" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5880,7 +5881,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B313" s="3">
         <v>616</v>
@@ -5891,7 +5892,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B314" s="3">
         <v>617</v>
@@ -5902,7 +5903,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B315" s="3">
         <v>618</v>
@@ -5946,7 +5947,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B319" s="3">
         <v>622</v>
@@ -5957,7 +5958,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B320" s="3">
         <v>623</v>
@@ -5968,7 +5969,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B321" s="3">
         <v>624</v>
@@ -5979,7 +5980,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B322" s="3">
         <v>625</v>
@@ -5990,7 +5991,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B323" s="3">
         <v>626</v>
@@ -6012,13 +6013,13 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B325" s="3">
         <v>628</v>
       </c>
       <c r="C325" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6029,7 +6030,7 @@
         <v>629</v>
       </c>
       <c r="C326" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6062,12 +6063,12 @@
         <v>632</v>
       </c>
       <c r="C329" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B330" s="3">
         <v>633</v>
@@ -6078,7 +6079,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B331" s="3">
         <v>634</v>
@@ -6089,7 +6090,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B332" s="3">
         <v>635</v>
@@ -6106,7 +6107,7 @@
         <v>636</v>
       </c>
       <c r="C333" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6122,13 +6123,13 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B335" s="3">
         <v>638</v>
       </c>
       <c r="C335" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6144,7 +6145,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B337" s="3">
         <v>701</v>
@@ -6177,7 +6178,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B340" s="3">
         <v>704</v>
@@ -6188,7 +6189,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B341" s="3">
         <v>705</v>
@@ -6221,7 +6222,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B344" s="3">
         <v>708</v>
@@ -6249,12 +6250,12 @@
         <v>710</v>
       </c>
       <c r="C346" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B347" s="3">
         <v>711</v>
@@ -6309,7 +6310,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B352" s="3">
         <v>716</v>
@@ -6331,7 +6332,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B354" s="3">
         <v>718</v>
@@ -6364,7 +6365,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B357" s="3">
         <v>721</v>
@@ -6386,7 +6387,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B359" s="3">
         <v>723</v>
@@ -6408,7 +6409,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B361" s="3">
         <v>725</v>
@@ -6419,7 +6420,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B362" s="3">
         <v>726</v>
@@ -6430,7 +6431,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B363" s="3">
         <v>727</v>
@@ -6518,7 +6519,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B371" s="3">
         <v>735</v>
@@ -6540,7 +6541,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B373" s="3">
         <v>737</v>
@@ -6584,7 +6585,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B377" s="3">
         <v>741</v>
@@ -6700,7 +6701,7 @@
         <v>751</v>
       </c>
       <c r="C387" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6711,7 +6712,7 @@
         <v>752</v>
       </c>
       <c r="C388" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6727,7 +6728,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B390" s="3">
         <v>801</v>
@@ -6760,7 +6761,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B393" s="3">
         <v>804</v>
@@ -6771,7 +6772,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B394" s="3">
         <v>805</v>
@@ -6793,7 +6794,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B396" s="3">
         <v>807</v>
@@ -6826,7 +6827,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B399" s="3">
         <v>810</v>
@@ -6843,7 +6844,7 @@
         <v>811</v>
       </c>
       <c r="C400" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6870,7 +6871,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B403" s="3">
         <v>814</v>
@@ -6903,7 +6904,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B406" s="3">
         <v>817</v>
@@ -6925,7 +6926,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B408" s="3">
         <v>901</v>
@@ -6958,7 +6959,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B411" s="3">
         <v>904</v>
@@ -7046,7 +7047,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B419" s="3">
         <v>912</v>
@@ -7068,7 +7069,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B421" s="3">
         <v>914</v>
@@ -7090,7 +7091,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B423" s="3">
         <v>916</v>
@@ -7123,7 +7124,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B426" s="3">
         <v>919</v>
@@ -7145,7 +7146,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B428" s="3">
         <v>921</v>
@@ -7156,7 +7157,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B429" s="3">
         <v>922</v>
@@ -7178,7 +7179,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B431" s="3">
         <v>924</v>
@@ -7200,7 +7201,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B433" s="3">
         <v>926</v>
@@ -7228,12 +7229,12 @@
         <v>928</v>
       </c>
       <c r="C435" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B436" s="3">
         <v>929</v>
@@ -7250,7 +7251,7 @@
         <v>930</v>
       </c>
       <c r="C437" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7261,18 +7262,18 @@
         <v>931</v>
       </c>
       <c r="C438" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B439" s="3">
         <v>932</v>
       </c>
       <c r="C439" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7283,7 +7284,7 @@
         <v>933</v>
       </c>
       <c r="C440" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7294,7 +7295,7 @@
         <v>934</v>
       </c>
       <c r="C441" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7305,7 +7306,7 @@
         <v>935</v>
       </c>
       <c r="C442" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7316,7 +7317,7 @@
         <v>936</v>
       </c>
       <c r="C443" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7327,7 +7328,7 @@
         <v>937</v>
       </c>
       <c r="C444" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7464,7 +7465,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B457" s="3">
         <v>1012</v>
@@ -7503,7 +7504,7 @@
         <v>1015</v>
       </c>
       <c r="C460" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7530,7 +7531,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B463" s="3">
         <v>1018</v>
@@ -7552,7 +7553,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B465" s="3">
         <v>1020</v>
@@ -7574,7 +7575,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B467" s="3">
         <v>1022</v>
@@ -7585,7 +7586,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B468" s="3">
         <v>1023</v>
@@ -7596,7 +7597,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B469" s="3">
         <v>1024</v>
@@ -7607,7 +7608,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B470" s="3">
         <v>1025</v>
@@ -7640,7 +7641,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B473" s="3">
         <v>1028</v>
@@ -7662,7 +7663,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B475" s="3">
         <v>1030</v>
@@ -7673,7 +7674,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B476" s="3">
         <v>1031</v>
@@ -7684,7 +7685,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B477" s="3">
         <v>1032</v>
@@ -7695,7 +7696,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B478" s="3">
         <v>1033</v>
@@ -7706,7 +7707,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B479" s="3">
         <v>1034</v>
@@ -7717,7 +7718,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B480" s="3">
         <v>1035</v>
@@ -7871,7 +7872,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B494" s="3">
         <v>1049</v>
@@ -7888,7 +7889,7 @@
         <v>1050</v>
       </c>
       <c r="C495" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7910,7 +7911,7 @@
         <v>1052</v>
       </c>
       <c r="C497" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7926,7 +7927,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B499" s="3">
         <v>1054</v>
@@ -7937,7 +7938,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B500" s="3">
         <v>1100</v>
@@ -7948,18 +7949,18 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B501" s="3">
         <v>1101</v>
       </c>
       <c r="C501" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B502" s="3">
         <v>1102</v>
@@ -7970,7 +7971,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B503" s="3">
         <v>1103</v>
@@ -7981,18 +7982,18 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B504" s="3">
         <v>1104</v>
       </c>
       <c r="C504" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B505" s="3">
         <v>1105</v>
@@ -8031,7 +8032,7 @@
         <v>1108</v>
       </c>
       <c r="C508" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8042,7 +8043,7 @@
         <v>1109</v>
       </c>
       <c r="C509" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8069,13 +8070,13 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B512" s="3">
         <v>1112</v>
       </c>
       <c r="C512" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8086,56 +8087,56 @@
         <v>1113</v>
       </c>
       <c r="C513" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B514" s="3">
         <v>1200</v>
       </c>
       <c r="C514" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B515" s="3">
         <v>1201</v>
       </c>
       <c r="C515" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B516" s="3">
         <v>1202</v>
       </c>
       <c r="C516" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B517" s="3">
         <v>1203</v>
       </c>
       <c r="C517" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B518" s="3">
         <v>1204</v>
@@ -8146,7 +8147,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B519" s="3">
         <v>1205</v>
@@ -8157,7 +8158,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B520" s="3">
         <v>1206</v>
@@ -8366,18 +8367,18 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B539" s="4">
         <v>1300</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B540" s="3">
         <v>1301</v>
@@ -8410,7 +8411,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B543" s="3">
         <v>1304</v>
@@ -8421,7 +8422,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B544" s="3">
         <v>1305</v>
@@ -8432,7 +8433,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B545" s="4">
         <v>1306</v>
@@ -8454,7 +8455,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B547" s="3">
         <v>1308</v>
@@ -8493,12 +8494,12 @@
         <v>1311</v>
       </c>
       <c r="C550" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B551" s="4">
         <v>1312</v>
@@ -8509,7 +8510,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B552" s="3">
         <v>1313</v>
@@ -8542,7 +8543,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B555" s="3">
         <v>1316</v>
@@ -8597,7 +8598,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B560" s="4">
         <v>1321</v>
@@ -8608,7 +8609,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B561" s="3">
         <v>1322</v>
@@ -8658,7 +8659,7 @@
         <v>1326</v>
       </c>
       <c r="C565" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -8680,7 +8681,7 @@
         <v>1328</v>
       </c>
       <c r="C567" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -8762,7 +8763,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B575" s="4">
         <v>1336</v>
@@ -8779,7 +8780,7 @@
         <v>1337</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -8790,7 +8791,7 @@
         <v>1338</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -8801,7 +8802,7 @@
         <v>1339</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -8812,7 +8813,7 @@
         <v>1340</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -8823,89 +8824,89 @@
         <v>1341</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B581" s="4">
         <v>1342</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B582" s="3">
         <v>1343</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B583" s="3">
         <v>1344</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B584" s="4">
         <v>1345</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B585" s="3">
         <v>1346</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B586" s="3">
         <v>1347</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B587" s="4">
         <v>1348</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B588" s="3">
         <v>1349</v>
@@ -8988,7 +8989,7 @@
         <v>1356</v>
       </c>
       <c r="C595" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -9021,7 +9022,7 @@
         <v>1359</v>
       </c>
       <c r="C598" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -9032,7 +9033,7 @@
         <v>1360</v>
       </c>
       <c r="C599" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -9043,56 +9044,56 @@
         <v>1361</v>
       </c>
       <c r="C600" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B601" s="3">
         <v>1362</v>
       </c>
       <c r="C601" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B602" s="3">
         <v>1400</v>
       </c>
       <c r="C602" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B603" s="3">
         <v>1401</v>
       </c>
       <c r="C603" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B604" s="3">
         <v>1402</v>
       </c>
       <c r="C604" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B605" s="3">
         <v>1403</v>
@@ -9103,13 +9104,13 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B606" s="3">
         <v>1404</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -9120,7 +9121,7 @@
         <v>1405</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -9131,7 +9132,7 @@
         <v>1406</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -9142,29 +9143,29 @@
         <v>1407</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B610" s="3">
         <v>1408</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B611" s="3">
         <v>1409</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -9175,7 +9176,7 @@
         <v>1410</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -9186,7 +9187,7 @@
         <v>1411</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -9197,7 +9198,7 @@
         <v>1412</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -9208,7 +9209,7 @@
         <v>1413</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -9219,7 +9220,7 @@
         <v>1414</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -9230,18 +9231,18 @@
         <v>1415</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B618" s="4">
         <v>1500</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -9252,7 +9253,7 @@
         <v>1501</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -9263,7 +9264,7 @@
         <v>1502</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -9274,7 +9275,7 @@
         <v>1503</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -9285,7 +9286,7 @@
         <v>1504</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -9296,12 +9297,12 @@
         <v>1505</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B624" s="4">
         <v>1600</v>
@@ -9312,24 +9313,24 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B625" s="4">
         <v>1601</v>
       </c>
       <c r="C625" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B626" s="4">
         <v>1602</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -9340,7 +9341,7 @@
         <v>1603</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -9351,7 +9352,7 @@
         <v>1604</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -9362,7 +9363,7 @@
         <v>1605</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -9373,7 +9374,7 @@
         <v>1606</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -9384,7 +9385,7 @@
         <v>1607</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -9395,7 +9396,7 @@
         <v>1608</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -9406,7 +9407,7 @@
         <v>1609</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -9417,7 +9418,7 @@
         <v>1610</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -9428,7 +9429,7 @@
         <v>1611</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -9439,7 +9440,7 @@
         <v>1612</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/stationdata_new.xlsx
+++ b/app/src/main/assets/stationdata_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HyukSu\Desktop\git_new\SubwayAlarm-android-app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420E727-30A7-4E83-8545-FE4B107C3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE9DF2-368C-465F-AC69-6F7EB1C751D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10870" yWindow="3210" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역정보" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="617">
   <si>
     <t>건대입구</t>
   </si>
@@ -1912,9 +1912,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,10,12,13</t>
-  </si>
-  <si>
     <t>4,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1936,10 +1933,6 @@
   </si>
   <si>
     <t>5,9,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2436,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView tabSelected="1" topLeftCell="A580" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C595" sqref="C595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3097,8 +3090,8 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>555</v>
+      <c r="A60" s="6">
+        <v>1</v>
       </c>
       <c r="B60" s="3">
         <v>159</v>
@@ -3218,8 +3211,8 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>555</v>
+      <c r="A71" s="6">
+        <v>1</v>
       </c>
       <c r="B71" s="3">
         <v>170</v>
@@ -3262,8 +3255,8 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6" t="s">
-        <v>555</v>
+      <c r="A75" s="6">
+        <v>1</v>
       </c>
       <c r="B75" s="3">
         <v>174</v>
@@ -3317,8 +3310,8 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6" t="s">
-        <v>555</v>
+      <c r="A80" s="6">
+        <v>1</v>
       </c>
       <c r="B80" s="3">
         <v>179</v>
@@ -3394,8 +3387,8 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="6" t="s">
-        <v>555</v>
+      <c r="A87" s="6">
+        <v>1</v>
       </c>
       <c r="B87" s="3">
         <v>186</v>
@@ -3438,8 +3431,8 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="6" t="s">
-        <v>555</v>
+      <c r="A91" s="6">
+        <v>1</v>
       </c>
       <c r="B91" s="3">
         <v>190</v>
@@ -3456,7 +3449,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3471,8 +3464,8 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="6" t="s">
-        <v>555</v>
+      <c r="A94" s="6">
+        <v>1</v>
       </c>
       <c r="B94" s="3">
         <v>193</v>
@@ -3537,8 +3530,8 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="6" t="s">
-        <v>555</v>
+      <c r="A100" s="6">
+        <v>2</v>
       </c>
       <c r="B100" s="3">
         <v>202</v>
@@ -3647,8 +3640,8 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="6" t="s">
-        <v>555</v>
+      <c r="A110" s="6">
+        <v>2</v>
       </c>
       <c r="B110" s="3">
         <v>212</v>
@@ -3691,8 +3684,8 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="6" t="s">
-        <v>555</v>
+      <c r="A114" s="6">
+        <v>2</v>
       </c>
       <c r="B114" s="3">
         <v>216</v>
@@ -3900,8 +3893,8 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="6" t="s">
-        <v>555</v>
+      <c r="A133" s="6">
+        <v>2</v>
       </c>
       <c r="B133" s="3">
         <v>235</v>
@@ -4087,8 +4080,8 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="6" t="s">
-        <v>555</v>
+      <c r="A150" s="6">
+        <v>3</v>
       </c>
       <c r="B150" s="3">
         <v>301</v>
@@ -4175,8 +4168,8 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="6" t="s">
-        <v>555</v>
+      <c r="A158" s="6">
+        <v>3</v>
       </c>
       <c r="B158" s="3">
         <v>309</v>
@@ -4230,8 +4223,8 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="6" t="s">
-        <v>555</v>
+      <c r="A163" s="6">
+        <v>3</v>
       </c>
       <c r="B163" s="3">
         <v>314</v>
@@ -4263,8 +4256,8 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="6" t="s">
-        <v>555</v>
+      <c r="A166" s="6">
+        <v>3</v>
       </c>
       <c r="B166" s="3">
         <v>317</v>
@@ -4450,8 +4443,8 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="6" t="s">
-        <v>555</v>
+      <c r="A183" s="6">
+        <v>3</v>
       </c>
       <c r="B183" s="3">
         <v>334</v>
@@ -4505,8 +4498,8 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="6" t="s">
-        <v>555</v>
+      <c r="A188" s="6">
+        <v>3</v>
       </c>
       <c r="B188" s="3">
         <v>339</v>
@@ -4692,8 +4685,8 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="6" t="s">
-        <v>555</v>
+      <c r="A205" s="6">
+        <v>4</v>
       </c>
       <c r="B205" s="3">
         <v>412</v>
@@ -4769,8 +4762,8 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="6" t="s">
-        <v>586</v>
+      <c r="A212" s="6">
+        <v>4</v>
       </c>
       <c r="B212" s="3">
         <v>419</v>
@@ -4825,7 +4818,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B217" s="3">
         <v>424</v>
@@ -4836,7 +4829,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B218" s="3">
         <v>425</v>
@@ -4847,7 +4840,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B219" s="3">
         <v>426</v>
@@ -4869,7 +4862,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B221" s="3">
         <v>428</v>
@@ -4979,7 +4972,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B231" s="3">
         <v>438</v>
@@ -5000,8 +4993,8 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="6" t="s">
-        <v>586</v>
+      <c r="A233" s="6">
+        <v>4</v>
       </c>
       <c r="B233" s="3">
         <v>440</v>
@@ -5056,7 +5049,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B238" s="3">
         <v>445</v>
@@ -5088,8 +5081,8 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="6" t="s">
-        <v>586</v>
+      <c r="A241" s="6">
+        <v>5</v>
       </c>
       <c r="B241" s="3">
         <v>500</v>
@@ -5111,7 +5104,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B243" s="3">
         <v>502</v>
@@ -5143,8 +5136,8 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="6" t="s">
-        <v>586</v>
+      <c r="A246" s="6">
+        <v>5</v>
       </c>
       <c r="B246" s="3">
         <v>505</v>
@@ -5220,8 +5213,8 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="6" t="s">
-        <v>593</v>
+      <c r="A253" s="6">
+        <v>5</v>
       </c>
       <c r="B253" s="3">
         <v>512</v>
@@ -5265,7 +5258,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B257" s="3">
         <v>516</v>
@@ -5298,7 +5291,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B260" s="3">
         <v>519</v>
@@ -5386,7 +5379,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B268" s="3">
         <v>527</v>
@@ -5396,8 +5389,8 @@
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="6" t="s">
-        <v>586</v>
+      <c r="A269" s="6">
+        <v>5</v>
       </c>
       <c r="B269" s="3">
         <v>528</v>
@@ -5463,7 +5456,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B275" s="3">
         <v>534</v>
@@ -5496,7 +5489,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B278" s="3">
         <v>537</v>
@@ -5627,8 +5620,8 @@
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="6" t="s">
-        <v>586</v>
+      <c r="A290" s="6">
+        <v>5</v>
       </c>
       <c r="B290" s="3">
         <v>549</v>
@@ -5777,7 +5770,7 @@
         <v>606</v>
       </c>
       <c r="C303" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5793,7 +5786,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B305" s="3">
         <v>608</v>
@@ -5881,7 +5874,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B313" s="3">
         <v>616</v>
@@ -5892,7 +5885,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B314" s="3">
         <v>617</v>
@@ -5903,7 +5896,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B315" s="3">
         <v>618</v>
@@ -5946,8 +5939,8 @@
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="6" t="s">
-        <v>586</v>
+      <c r="A319" s="6">
+        <v>6</v>
       </c>
       <c r="B319" s="3">
         <v>622</v>
@@ -5969,7 +5962,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B321" s="3">
         <v>624</v>
@@ -6013,7 +6006,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B325" s="3">
         <v>628</v>
@@ -6067,8 +6060,8 @@
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="6" t="s">
-        <v>586</v>
+      <c r="A330" s="6">
+        <v>6</v>
       </c>
       <c r="B330" s="3">
         <v>633</v>
@@ -6090,7 +6083,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B332" s="3">
         <v>635</v>
@@ -6123,7 +6116,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B335" s="3">
         <v>638</v>
@@ -6178,7 +6171,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B340" s="3">
         <v>704</v>
@@ -6188,8 +6181,8 @@
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="6" t="s">
-        <v>586</v>
+      <c r="A341" s="6">
+        <v>7</v>
       </c>
       <c r="B341" s="3">
         <v>705</v>
@@ -6222,7 +6215,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B344" s="3">
         <v>708</v>
@@ -6255,7 +6248,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B347" s="3">
         <v>711</v>
@@ -6310,7 +6303,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B352" s="3">
         <v>716</v>
@@ -6365,7 +6358,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B357" s="3">
         <v>721</v>
@@ -6387,7 +6380,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B359" s="3">
         <v>723</v>
@@ -6419,8 +6412,8 @@
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="6" t="s">
-        <v>555</v>
+      <c r="A362" s="6">
+        <v>7</v>
       </c>
       <c r="B362" s="3">
         <v>726</v>
@@ -6431,7 +6424,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B363" s="3">
         <v>727</v>
@@ -6728,7 +6721,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B390" s="3">
         <v>801</v>
@@ -6772,7 +6765,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B394" s="3">
         <v>805</v>
@@ -6827,7 +6820,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B399" s="3">
         <v>810</v>
@@ -6870,8 +6863,8 @@
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" s="6" t="s">
-        <v>586</v>
+      <c r="A403" s="6">
+        <v>8</v>
       </c>
       <c r="B403" s="3">
         <v>814</v>
@@ -6904,7 +6897,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B406" s="3">
         <v>817</v>
@@ -6926,7 +6919,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B408" s="3">
         <v>901</v>
@@ -6959,7 +6952,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B411" s="3">
         <v>904</v>
@@ -7069,7 +7062,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B421" s="3">
         <v>914</v>
@@ -7124,7 +7117,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B426" s="3">
         <v>919</v>
@@ -7145,8 +7138,8 @@
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" s="6" t="s">
-        <v>586</v>
+      <c r="A428" s="6">
+        <v>9</v>
       </c>
       <c r="B428" s="3">
         <v>921</v>
@@ -7179,7 +7172,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B431" s="3">
         <v>924</v>
@@ -7201,7 +7194,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B433" s="3">
         <v>926</v>
@@ -7267,7 +7260,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B439" s="3">
         <v>932</v>
@@ -7504,7 +7497,7 @@
         <v>1015</v>
       </c>
       <c r="C460" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7531,7 +7524,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B463" s="3">
         <v>1018</v>
@@ -7575,7 +7568,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B467" s="3">
         <v>1022</v>
@@ -7586,7 +7579,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B468" s="3">
         <v>1023</v>
@@ -7608,7 +7601,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B470" s="3">
         <v>1025</v>
@@ -7696,7 +7689,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B478" s="3">
         <v>1033</v>
@@ -7707,7 +7700,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B479" s="3">
         <v>1034</v>
@@ -7718,7 +7711,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B480" s="3">
         <v>1035</v>
@@ -7871,8 +7864,8 @@
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="6" t="s">
-        <v>593</v>
+      <c r="A494" s="6">
+        <v>10</v>
       </c>
       <c r="B494" s="3">
         <v>1049</v>
@@ -7949,7 +7942,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B501" s="3">
         <v>1101</v>
@@ -7971,7 +7964,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B503" s="3">
         <v>1103</v>
@@ -7982,7 +7975,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B504" s="3">
         <v>1104</v>
@@ -7993,7 +7986,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B505" s="3">
         <v>1105</v>
@@ -8070,7 +8063,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B512" s="3">
         <v>1112</v>
@@ -8125,7 +8118,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B517" s="3">
         <v>1203</v>
@@ -8136,7 +8129,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B518" s="3">
         <v>1204</v>
@@ -8147,7 +8140,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B519" s="3">
         <v>1205</v>
@@ -8158,7 +8151,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B520" s="3">
         <v>1206</v>
@@ -8411,7 +8404,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B543" s="3">
         <v>1304</v>
@@ -8422,7 +8415,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B544" s="3">
         <v>1305</v>
@@ -8510,7 +8503,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B552" s="3">
         <v>1313</v>
@@ -8543,7 +8536,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B555" s="3">
         <v>1316</v>
@@ -8598,7 +8591,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B560" s="4">
         <v>1321</v>
@@ -8609,7 +8602,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B561" s="3">
         <v>1322</v>
@@ -9071,7 +9064,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B603" s="3">
         <v>1401</v>
@@ -9082,7 +9075,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B604" s="3">
         <v>1402</v>
@@ -9148,7 +9141,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B610" s="3">
         <v>1408</v>
@@ -9159,7 +9152,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B611" s="3">
         <v>1409</v>
@@ -9236,7 +9229,7 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B618" s="4">
         <v>1500</v>
@@ -9313,7 +9306,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B625" s="4">
         <v>1601</v>
@@ -9324,7 +9317,7 @@
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B626" s="4">
         <v>1602</v>
@@ -9440,7 +9433,7 @@
         <v>1612</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/stationdata_new.xlsx
+++ b/app/src/main/assets/stationdata_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HyukSu\Desktop\git_new\SubwayAlarm-android-app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE9DF2-368C-465F-AC69-6F7EB1C751D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF50794-8601-4E5B-9E0C-32E942BA9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10870" yWindow="3210" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="2720" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역정보" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="616">
   <si>
     <t>건대입구</t>
   </si>
@@ -1905,10 +1905,6 @@
   </si>
   <si>
     <t>4,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2429,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C595" sqref="C595"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3449,7 +3445,7 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4598,7 +4594,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B197" s="3">
         <v>404</v>
@@ -4818,7 +4814,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B217" s="3">
         <v>424</v>
@@ -4829,7 +4825,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B218" s="3">
         <v>425</v>
@@ -4840,7 +4836,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B219" s="3">
         <v>426</v>
@@ -4862,7 +4858,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B221" s="3">
         <v>428</v>
@@ -4972,7 +4968,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B231" s="3">
         <v>438</v>
@@ -5049,7 +5045,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B238" s="3">
         <v>445</v>
@@ -5104,7 +5100,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B243" s="3">
         <v>502</v>
@@ -5258,7 +5254,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B257" s="3">
         <v>516</v>
@@ -5291,7 +5287,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B260" s="3">
         <v>519</v>
@@ -5379,7 +5375,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B268" s="3">
         <v>527</v>
@@ -5456,7 +5452,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B275" s="3">
         <v>534</v>
@@ -5489,7 +5485,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B278" s="3">
         <v>537</v>
@@ -5770,7 +5766,7 @@
         <v>606</v>
       </c>
       <c r="C303" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5786,7 +5782,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B305" s="3">
         <v>608</v>
@@ -5874,7 +5870,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B313" s="3">
         <v>616</v>
@@ -5885,7 +5881,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B314" s="3">
         <v>617</v>
@@ -5896,7 +5892,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B315" s="3">
         <v>618</v>
@@ -5962,7 +5958,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B321" s="3">
         <v>624</v>
@@ -6006,7 +6002,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B325" s="3">
         <v>628</v>
@@ -6083,7 +6079,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B332" s="3">
         <v>635</v>
@@ -6116,7 +6112,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B335" s="3">
         <v>638</v>
@@ -6171,7 +6167,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B340" s="3">
         <v>704</v>
@@ -6215,7 +6211,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B344" s="3">
         <v>708</v>
@@ -6248,7 +6244,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B347" s="3">
         <v>711</v>
@@ -6303,7 +6299,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B352" s="3">
         <v>716</v>
@@ -6358,7 +6354,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B357" s="3">
         <v>721</v>
@@ -6380,7 +6376,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B359" s="3">
         <v>723</v>
@@ -6424,7 +6420,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B363" s="3">
         <v>727</v>
@@ -6721,7 +6717,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B390" s="3">
         <v>801</v>
@@ -6765,7 +6761,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B394" s="3">
         <v>805</v>
@@ -6820,7 +6816,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B399" s="3">
         <v>810</v>
@@ -6897,7 +6893,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B406" s="3">
         <v>817</v>
@@ -6919,7 +6915,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B408" s="3">
         <v>901</v>
@@ -6952,7 +6948,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B411" s="3">
         <v>904</v>
@@ -7062,7 +7058,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B421" s="3">
         <v>914</v>
@@ -7117,7 +7113,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B426" s="3">
         <v>919</v>
@@ -7172,7 +7168,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B431" s="3">
         <v>924</v>
@@ -7194,7 +7190,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B433" s="3">
         <v>926</v>
@@ -7260,7 +7256,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B439" s="3">
         <v>932</v>
@@ -7497,7 +7493,7 @@
         <v>1015</v>
       </c>
       <c r="C460" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7524,7 +7520,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B463" s="3">
         <v>1018</v>
@@ -7568,7 +7564,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B467" s="3">
         <v>1022</v>
@@ -7579,7 +7575,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B468" s="3">
         <v>1023</v>
@@ -7601,7 +7597,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B470" s="3">
         <v>1025</v>
@@ -7689,7 +7685,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B478" s="3">
         <v>1033</v>
@@ -7700,7 +7696,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B479" s="3">
         <v>1034</v>
@@ -7711,7 +7707,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B480" s="3">
         <v>1035</v>
@@ -7942,7 +7938,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B501" s="3">
         <v>1101</v>
@@ -7964,7 +7960,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B503" s="3">
         <v>1103</v>
@@ -7975,7 +7971,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B504" s="3">
         <v>1104</v>
@@ -7986,7 +7982,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B505" s="3">
         <v>1105</v>
@@ -8063,7 +8059,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B512" s="3">
         <v>1112</v>
@@ -8118,7 +8114,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B517" s="3">
         <v>1203</v>
@@ -8129,7 +8125,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B518" s="3">
         <v>1204</v>
@@ -8140,7 +8136,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B519" s="3">
         <v>1205</v>
@@ -8151,7 +8147,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B520" s="3">
         <v>1206</v>
@@ -8404,7 +8400,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B543" s="3">
         <v>1304</v>
@@ -8415,7 +8411,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B544" s="3">
         <v>1305</v>
@@ -8503,7 +8499,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B552" s="3">
         <v>1313</v>
@@ -8536,7 +8532,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B555" s="3">
         <v>1316</v>
@@ -8591,7 +8587,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B560" s="4">
         <v>1321</v>
@@ -8602,7 +8598,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B561" s="3">
         <v>1322</v>
@@ -8855,7 +8851,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B584" s="4">
         <v>1345</v>
@@ -9064,7 +9060,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B603" s="3">
         <v>1401</v>
@@ -9075,7 +9071,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B604" s="3">
         <v>1402</v>
@@ -9141,7 +9137,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B610" s="3">
         <v>1408</v>
@@ -9152,7 +9148,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B611" s="3">
         <v>1409</v>
@@ -9229,7 +9225,7 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B618" s="4">
         <v>1500</v>
@@ -9306,7 +9302,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B625" s="4">
         <v>1601</v>
@@ -9317,7 +9313,7 @@
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B626" s="4">
         <v>1602</v>
@@ -9433,7 +9429,7 @@
         <v>1612</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/stationdata_new.xlsx
+++ b/app/src/main/assets/stationdata_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HyukSu\Desktop\git_new\SubwayAlarm-android-app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF50794-8601-4E5B-9E0C-32E942BA9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91F470-CD78-4319-AA8C-A81A66E00A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="2720" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역정보" sheetId="2" r:id="rId1"/>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A589" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C626" sqref="C626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C1" t="s">
         <v>168</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
         <v>450</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>102</v>
+        <v>1002</v>
       </c>
       <c r="C3" t="s">
         <v>319</v>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>103</v>
+        <v>1003</v>
       </c>
       <c r="C4" t="s">
         <v>317</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>104</v>
+        <v>1004</v>
       </c>
       <c r="C5" t="s">
         <v>318</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>105</v>
+        <v>1005</v>
       </c>
       <c r="C6" t="s">
         <v>320</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>106</v>
+        <v>1006</v>
       </c>
       <c r="C7" t="s">
         <v>175</v>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>107</v>
+        <v>1007</v>
       </c>
       <c r="C8" t="s">
         <v>174</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>108</v>
+        <v>1008</v>
       </c>
       <c r="C9" t="s">
         <v>176</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>109</v>
+        <v>1009</v>
       </c>
       <c r="C10" t="s">
         <v>413</v>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>110</v>
+        <v>1010</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>111</v>
+        <v>1011</v>
       </c>
       <c r="C12" t="s">
         <v>451</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>112</v>
+        <v>1012</v>
       </c>
       <c r="C13" t="s">
         <v>429</v>
@@ -2584,7 +2584,7 @@
         <v>550</v>
       </c>
       <c r="B14" s="3">
-        <v>113</v>
+        <v>1013</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>114</v>
+        <v>1014</v>
       </c>
       <c r="C15" t="s">
         <v>430</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>115</v>
+        <v>1015</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
@@ -2617,7 +2617,7 @@
         <v>551</v>
       </c>
       <c r="B17" s="3">
-        <v>116</v>
+        <v>1016</v>
       </c>
       <c r="C17" t="s">
         <v>177</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>117</v>
+        <v>1017</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>118</v>
+        <v>1018</v>
       </c>
       <c r="C19" t="s">
         <v>180</v>
@@ -2650,7 +2650,7 @@
         <v>552</v>
       </c>
       <c r="B20" s="3">
-        <v>119</v>
+        <v>1019</v>
       </c>
       <c r="C20" t="s">
         <v>162</v>
@@ -2661,7 +2661,7 @@
         <v>553</v>
       </c>
       <c r="B21" s="3">
-        <v>120</v>
+        <v>1020</v>
       </c>
       <c r="C21" t="s">
         <v>198</v>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3">
-        <v>121</v>
+        <v>1021</v>
       </c>
       <c r="C22" t="s">
         <v>432</v>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>122</v>
+        <v>1022</v>
       </c>
       <c r="C23" t="s">
         <v>431</v>
@@ -2694,7 +2694,7 @@
         <v>554</v>
       </c>
       <c r="B24" s="3">
-        <v>123</v>
+        <v>1023</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -2705,7 +2705,7 @@
         <v>555</v>
       </c>
       <c r="B25" s="3">
-        <v>124</v>
+        <v>1024</v>
       </c>
       <c r="C25" t="s">
         <v>116</v>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="3">
-        <v>125</v>
+        <v>1025</v>
       </c>
       <c r="C26" t="s">
         <v>394</v>
@@ -2727,7 +2727,7 @@
         <v>556</v>
       </c>
       <c r="B27" s="3">
-        <v>126</v>
+        <v>1026</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -2738,7 +2738,7 @@
         <v>553</v>
       </c>
       <c r="B28" s="3">
-        <v>127</v>
+        <v>1027</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -2749,7 +2749,7 @@
         <v>551</v>
       </c>
       <c r="B29" s="3">
-        <v>128</v>
+        <v>1028</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>129</v>
+        <v>1029</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -2771,7 +2771,7 @@
         <v>557</v>
       </c>
       <c r="B31" s="3">
-        <v>130</v>
+        <v>1030</v>
       </c>
       <c r="C31" t="s">
         <v>333</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3">
-        <v>131</v>
+        <v>1031</v>
       </c>
       <c r="C32" t="s">
         <v>334</v>
@@ -2793,7 +2793,7 @@
         <v>558</v>
       </c>
       <c r="B33" s="3">
-        <v>132</v>
+        <v>1032</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -2804,7 +2804,7 @@
         <v>559</v>
       </c>
       <c r="B34" s="3">
-        <v>133</v>
+        <v>1033</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3">
-        <v>134</v>
+        <v>1034</v>
       </c>
       <c r="C35" t="s">
         <v>164</v>
@@ -2826,7 +2826,7 @@
         <v>560</v>
       </c>
       <c r="B36" s="3">
-        <v>135</v>
+        <v>1035</v>
       </c>
       <c r="C36" t="s">
         <v>113</v>
@@ -2837,7 +2837,7 @@
         <v>561</v>
       </c>
       <c r="B37" s="3">
-        <v>136</v>
+        <v>1036</v>
       </c>
       <c r="C37" t="s">
         <v>166</v>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>137</v>
+        <v>1037</v>
       </c>
       <c r="C38" t="s">
         <v>364</v>
@@ -2859,7 +2859,7 @@
         <v>562</v>
       </c>
       <c r="B39" s="3">
-        <v>138</v>
+        <v>1038</v>
       </c>
       <c r="C39" t="s">
         <v>245</v>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="3">
-        <v>139</v>
+        <v>1039</v>
       </c>
       <c r="C40" t="s">
         <v>365</v>
@@ -2881,7 +2881,7 @@
         <v>558</v>
       </c>
       <c r="B41" s="3">
-        <v>140</v>
+        <v>1040</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="3">
-        <v>141</v>
+        <v>1041</v>
       </c>
       <c r="C42" t="s">
         <v>549</v>
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>142</v>
+        <v>1042</v>
       </c>
       <c r="C43" t="s">
         <v>310</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="3">
-        <v>143</v>
+        <v>1043</v>
       </c>
       <c r="C44" t="s">
         <v>309</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>144</v>
+        <v>1044</v>
       </c>
       <c r="C45" t="s">
         <v>311</v>
@@ -2936,7 +2936,7 @@
         <v>550</v>
       </c>
       <c r="B46" s="3">
-        <v>145</v>
+        <v>1045</v>
       </c>
       <c r="C46" t="s">
         <v>171</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>146</v>
+        <v>1046</v>
       </c>
       <c r="C47" t="s">
         <v>312</v>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>147</v>
+        <v>1047</v>
       </c>
       <c r="C48" t="s">
         <v>170</v>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>148</v>
+        <v>1048</v>
       </c>
       <c r="C49" t="s">
         <v>167</v>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
-        <v>149</v>
+        <v>1049</v>
       </c>
       <c r="C50" t="s">
         <v>172</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="3">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="C51" t="s">
         <v>428</v>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="3">
-        <v>151</v>
+        <v>1051</v>
       </c>
       <c r="C52" t="s">
         <v>169</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="3">
-        <v>152</v>
+        <v>1052</v>
       </c>
       <c r="C53" t="s">
         <v>315</v>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>153</v>
+        <v>1053</v>
       </c>
       <c r="C54" t="s">
         <v>313</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="3">
-        <v>154</v>
+        <v>1054</v>
       </c>
       <c r="C55" t="s">
         <v>316</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="3">
-        <v>155</v>
+        <v>1055</v>
       </c>
       <c r="C56" t="s">
         <v>366</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>156</v>
+        <v>1056</v>
       </c>
       <c r="C57" t="s">
         <v>314</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>157</v>
+        <v>1057</v>
       </c>
       <c r="C58" t="s">
         <v>368</v>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="3">
-        <v>158</v>
+        <v>1058</v>
       </c>
       <c r="C59" t="s">
         <v>367</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="3">
-        <v>159</v>
+        <v>1059</v>
       </c>
       <c r="C60" t="s">
         <v>369</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="3">
-        <v>160</v>
+        <v>1060</v>
       </c>
       <c r="C61" t="s">
         <v>173</v>
@@ -3112,7 +3112,7 @@
         <v>563</v>
       </c>
       <c r="B62" s="3">
-        <v>161</v>
+        <v>1061</v>
       </c>
       <c r="C62" t="s">
         <v>504</v>
@@ -3123,7 +3123,7 @@
         <v>550</v>
       </c>
       <c r="B63" s="3">
-        <v>162</v>
+        <v>1062</v>
       </c>
       <c r="C63" t="s">
         <v>158</v>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="3">
-        <v>163</v>
+        <v>1063</v>
       </c>
       <c r="C64" t="s">
         <v>448</v>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>164</v>
+        <v>1064</v>
       </c>
       <c r="C65" t="s">
         <v>296</v>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>165</v>
+        <v>1065</v>
       </c>
       <c r="C66" t="s">
         <v>294</v>
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="3">
-        <v>166</v>
+        <v>1066</v>
       </c>
       <c r="C67" t="s">
         <v>297</v>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="3">
-        <v>167</v>
+        <v>1067</v>
       </c>
       <c r="C68" t="s">
         <v>295</v>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>168</v>
+        <v>1068</v>
       </c>
       <c r="C69" t="s">
         <v>298</v>
@@ -3200,7 +3200,7 @@
         <v>551</v>
       </c>
       <c r="B70" s="3">
-        <v>169</v>
+        <v>1069</v>
       </c>
       <c r="C70" t="s">
         <v>233</v>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="3">
-        <v>170</v>
+        <v>1070</v>
       </c>
       <c r="C71" t="s">
         <v>363</v>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="3">
-        <v>171</v>
+        <v>1071</v>
       </c>
       <c r="C72" t="s">
         <v>299</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="3">
-        <v>172</v>
+        <v>1072</v>
       </c>
       <c r="C73" t="s">
         <v>300</v>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="3">
-        <v>173</v>
+        <v>1073</v>
       </c>
       <c r="C74" t="s">
         <v>159</v>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="3">
-        <v>174</v>
+        <v>1074</v>
       </c>
       <c r="C75" t="s">
         <v>157</v>
@@ -3266,7 +3266,7 @@
         <v>563</v>
       </c>
       <c r="B76" s="3">
-        <v>175</v>
+        <v>1075</v>
       </c>
       <c r="C76" t="s">
         <v>145</v>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="3">
-        <v>176</v>
+        <v>1076</v>
       </c>
       <c r="C77" t="s">
         <v>163</v>
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="3">
-        <v>177</v>
+        <v>1077</v>
       </c>
       <c r="C78" t="s">
         <v>160</v>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="3">
-        <v>178</v>
+        <v>1078</v>
       </c>
       <c r="C79" t="s">
         <v>161</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="3">
-        <v>179</v>
+        <v>1079</v>
       </c>
       <c r="C80" t="s">
         <v>411</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="3">
-        <v>180</v>
+        <v>1080</v>
       </c>
       <c r="C81" t="s">
         <v>305</v>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="3">
-        <v>181</v>
+        <v>1081</v>
       </c>
       <c r="C82" t="s">
         <v>412</v>
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="3">
-        <v>182</v>
+        <v>1082</v>
       </c>
       <c r="C83" t="s">
         <v>303</v>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="3">
-        <v>183</v>
+        <v>1083</v>
       </c>
       <c r="C84" t="s">
         <v>301</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="3">
-        <v>184</v>
+        <v>1084</v>
       </c>
       <c r="C85" t="s">
         <v>304</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="3">
-        <v>185</v>
+        <v>1085</v>
       </c>
       <c r="C86" t="s">
         <v>302</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="3">
-        <v>186</v>
+        <v>1086</v>
       </c>
       <c r="C87" t="s">
         <v>306</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="3">
-        <v>187</v>
+        <v>1087</v>
       </c>
       <c r="C88" t="s">
         <v>307</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="3">
-        <v>188</v>
+        <v>1088</v>
       </c>
       <c r="C89" t="s">
         <v>308</v>
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="3">
-        <v>189</v>
+        <v>1089</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="3">
-        <v>190</v>
+        <v>1090</v>
       </c>
       <c r="C91" t="s">
         <v>452</v>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="3">
-        <v>191</v>
+        <v>1091</v>
       </c>
       <c r="C92" t="s">
         <v>615</v>
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="3">
-        <v>192</v>
+        <v>1092</v>
       </c>
       <c r="C93" t="s">
         <v>433</v>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="3">
-        <v>193</v>
+        <v>1093</v>
       </c>
       <c r="C94" t="s">
         <v>471</v>
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>194</v>
+        <v>1094</v>
       </c>
       <c r="C95" t="s">
         <v>434</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>195</v>
+        <v>1095</v>
       </c>
       <c r="C96" t="s">
         <v>435</v>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="3">
-        <v>196</v>
+        <v>1096</v>
       </c>
       <c r="C97" t="s">
         <v>548</v>
@@ -3508,7 +3508,7 @@
         <v>558</v>
       </c>
       <c r="B98" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="C98" t="s">
         <v>31</v>
@@ -3519,7 +3519,7 @@
         <v>564</v>
       </c>
       <c r="B99" s="3">
-        <v>201</v>
+        <v>2001</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="3">
-        <v>202</v>
+        <v>2002</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -3541,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="3">
-        <v>203</v>
+        <v>2003</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="3">
-        <v>204</v>
+        <v>2004</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -3563,7 +3563,7 @@
         <v>565</v>
       </c>
       <c r="B103" s="3">
-        <v>205</v>
+        <v>2005</v>
       </c>
       <c r="C103" t="s">
         <v>26</v>
@@ -3574,7 +3574,7 @@
         <v>566</v>
       </c>
       <c r="B104" s="3">
-        <v>206</v>
+        <v>2006</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -3585,7 +3585,7 @@
         <v>567</v>
       </c>
       <c r="B105" s="3">
-        <v>207</v>
+        <v>2007</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -3596,7 +3596,7 @@
         <v>564</v>
       </c>
       <c r="B106" s="3">
-        <v>208</v>
+        <v>2008</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="3">
-        <v>209</v>
+        <v>2009</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
@@ -3618,7 +3618,7 @@
         <v>558</v>
       </c>
       <c r="B108" s="3">
-        <v>210</v>
+        <v>2010</v>
       </c>
       <c r="C108" t="s">
         <v>547</v>
@@ -3629,7 +3629,7 @@
         <v>568</v>
       </c>
       <c r="B109" s="3">
-        <v>211</v>
+        <v>2011</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="3">
-        <v>212</v>
+        <v>2012</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3651,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="3">
-        <v>213</v>
+        <v>2013</v>
       </c>
       <c r="C111" t="s">
         <v>18</v>
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="3">
-        <v>214</v>
+        <v>2014</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="3">
-        <v>215</v>
+        <v>2015</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="3">
-        <v>216</v>
+        <v>2016</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
@@ -3695,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="3">
-        <v>217</v>
+        <v>2017</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -3706,7 +3706,7 @@
         <v>569</v>
       </c>
       <c r="B116" s="3">
-        <v>218</v>
+        <v>2018</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -3717,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="3">
-        <v>219</v>
+        <v>2019</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -3728,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="3">
-        <v>220</v>
+        <v>2020</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -3739,7 +3739,7 @@
         <v>570</v>
       </c>
       <c r="B119" s="3">
-        <v>221</v>
+        <v>2021</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -3750,7 +3750,7 @@
         <v>571</v>
       </c>
       <c r="B120" s="3">
-        <v>222</v>
+        <v>2022</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="3">
-        <v>223</v>
+        <v>2023</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -3772,7 +3772,7 @@
         <v>572</v>
       </c>
       <c r="B122" s="3">
-        <v>224</v>
+        <v>2024</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="3">
-        <v>225</v>
+        <v>2025</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -3794,7 +3794,7 @@
         <v>567</v>
       </c>
       <c r="B124" s="3">
-        <v>226</v>
+        <v>2026</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="3">
-        <v>227</v>
+        <v>2027</v>
       </c>
       <c r="C125" t="s">
         <v>526</v>
@@ -3816,7 +3816,7 @@
         <v>573</v>
       </c>
       <c r="B126" s="3">
-        <v>228</v>
+        <v>2028</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -3827,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="3">
-        <v>229</v>
+        <v>2029</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>230</v>
+        <v>2030</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -3849,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="3">
-        <v>231</v>
+        <v>2031</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -3860,7 +3860,7 @@
         <v>568</v>
       </c>
       <c r="B130" s="3">
-        <v>232</v>
+        <v>2032</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="3">
-        <v>233</v>
+        <v>2033</v>
       </c>
       <c r="C131" t="s">
         <v>546</v>
@@ -3882,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="3">
-        <v>234</v>
+        <v>2034</v>
       </c>
       <c r="C132" t="s">
         <v>40</v>
@@ -3893,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="3">
-        <v>235</v>
+        <v>2035</v>
       </c>
       <c r="C133" t="s">
         <v>39</v>
@@ -3904,7 +3904,7 @@
         <v>574</v>
       </c>
       <c r="B134" s="3">
-        <v>236</v>
+        <v>2036</v>
       </c>
       <c r="C134" t="s">
         <v>38</v>
@@ -3915,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="3">
-        <v>237</v>
+        <v>2037</v>
       </c>
       <c r="C135" t="s">
         <v>37</v>
@@ -3926,7 +3926,7 @@
         <v>566</v>
       </c>
       <c r="B136" s="3">
-        <v>238</v>
+        <v>2038</v>
       </c>
       <c r="C136" t="s">
         <v>36</v>
@@ -3937,7 +3937,7 @@
         <v>575</v>
       </c>
       <c r="B137" s="3">
-        <v>239</v>
+        <v>2039</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -3948,7 +3948,7 @@
         <v>564</v>
       </c>
       <c r="B138" s="3">
-        <v>240</v>
+        <v>2040</v>
       </c>
       <c r="C138" t="s">
         <v>34</v>
@@ -3959,7 +3959,7 @@
         <v>570</v>
       </c>
       <c r="B139" s="3">
-        <v>241</v>
+        <v>2041</v>
       </c>
       <c r="C139" t="s">
         <v>33</v>
@@ -3970,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="3">
-        <v>242</v>
+        <v>2042</v>
       </c>
       <c r="C140" t="s">
         <v>32</v>
@@ -3981,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="3">
-        <v>243</v>
+        <v>2043</v>
       </c>
       <c r="C141" t="s">
         <v>545</v>
@@ -3992,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="3">
-        <v>244</v>
+        <v>2044</v>
       </c>
       <c r="C142" t="s">
         <v>535</v>
@@ -4003,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="3">
-        <v>245</v>
+        <v>2045</v>
       </c>
       <c r="C143" t="s">
         <v>42</v>
@@ -4014,7 +4014,7 @@
         <v>556</v>
       </c>
       <c r="B144" s="3">
-        <v>246</v>
+        <v>2046</v>
       </c>
       <c r="C144" t="s">
         <v>43</v>
@@ -4025,7 +4025,7 @@
         <v>564</v>
       </c>
       <c r="B145" s="3">
-        <v>247</v>
+        <v>2047</v>
       </c>
       <c r="C145" t="s">
         <v>536</v>
@@ -4036,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="3">
-        <v>248</v>
+        <v>2048</v>
       </c>
       <c r="C146" t="s">
         <v>537</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="3">
-        <v>249</v>
+        <v>2049</v>
       </c>
       <c r="C147" t="s">
         <v>538</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="3">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="C148" t="s">
         <v>539</v>
@@ -4069,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="C149" t="s">
         <v>78</v>
@@ -4080,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="3">
-        <v>301</v>
+        <v>3001</v>
       </c>
       <c r="C150" t="s">
         <v>419</v>
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="3">
-        <v>302</v>
+        <v>3002</v>
       </c>
       <c r="C151" t="s">
         <v>221</v>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="3">
-        <v>303</v>
+        <v>3003</v>
       </c>
       <c r="C152" t="s">
         <v>219</v>
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="3">
-        <v>304</v>
+        <v>3004</v>
       </c>
       <c r="C153" t="s">
         <v>222</v>
@@ -4124,7 +4124,7 @@
         <v>576</v>
       </c>
       <c r="B154" s="3">
-        <v>305</v>
+        <v>3005</v>
       </c>
       <c r="C154" t="s">
         <v>103</v>
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="B155" s="3">
-        <v>306</v>
+        <v>3006</v>
       </c>
       <c r="C155" t="s">
         <v>220</v>
@@ -4146,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="B156" s="3">
-        <v>307</v>
+        <v>3007</v>
       </c>
       <c r="C156" t="s">
         <v>324</v>
@@ -4157,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="3">
-        <v>308</v>
+        <v>3008</v>
       </c>
       <c r="C157" t="s">
         <v>225</v>
@@ -4168,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="B158" s="3">
-        <v>309</v>
+        <v>3009</v>
       </c>
       <c r="C158" t="s">
         <v>223</v>
@@ -4179,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="3">
-        <v>310</v>
+        <v>3010</v>
       </c>
       <c r="C159" t="s">
         <v>224</v>
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>311</v>
+        <v>3011</v>
       </c>
       <c r="C160" t="s">
         <v>83</v>
@@ -4201,7 +4201,7 @@
         <v>577</v>
       </c>
       <c r="B161" s="3">
-        <v>312</v>
+        <v>3012</v>
       </c>
       <c r="C161" t="s">
         <v>253</v>
@@ -4212,7 +4212,7 @@
         <v>577</v>
       </c>
       <c r="B162" s="3">
-        <v>313</v>
+        <v>3013</v>
       </c>
       <c r="C162" t="s">
         <v>187</v>
@@ -4223,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="3">
-        <v>314</v>
+        <v>3014</v>
       </c>
       <c r="C163" t="s">
         <v>257</v>
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="B164" s="3">
-        <v>315</v>
+        <v>3015</v>
       </c>
       <c r="C164" t="s">
         <v>254</v>
@@ -4245,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="3">
-        <v>316</v>
+        <v>3016</v>
       </c>
       <c r="C165" t="s">
         <v>255</v>
@@ -4256,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="3">
-        <v>317</v>
+        <v>3017</v>
       </c>
       <c r="C166" t="s">
         <v>256</v>
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="3">
-        <v>318</v>
+        <v>3018</v>
       </c>
       <c r="C167" t="s">
         <v>395</v>
@@ -4278,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="3">
-        <v>319</v>
+        <v>3019</v>
       </c>
       <c r="C168" t="s">
         <v>422</v>
@@ -4289,7 +4289,7 @@
         <v>557</v>
       </c>
       <c r="B169" s="3">
-        <v>320</v>
+        <v>3020</v>
       </c>
       <c r="C169" t="s">
         <v>333</v>
@@ -4300,7 +4300,7 @@
         <v>570</v>
       </c>
       <c r="B170" s="3">
-        <v>321</v>
+        <v>3021</v>
       </c>
       <c r="C170" t="s">
         <v>33</v>
@@ -4311,7 +4311,7 @@
         <v>578</v>
       </c>
       <c r="B171" s="3">
-        <v>322</v>
+        <v>3022</v>
       </c>
       <c r="C171" t="s">
         <v>50</v>
@@ -4322,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="3">
-        <v>323</v>
+        <v>3023</v>
       </c>
       <c r="C172" t="s">
         <v>335</v>
@@ -4333,7 +4333,7 @@
         <v>577</v>
       </c>
       <c r="B173" s="3">
-        <v>324</v>
+        <v>3024</v>
       </c>
       <c r="C173" t="s">
         <v>193</v>
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="3">
-        <v>325</v>
+        <v>3025</v>
       </c>
       <c r="C174" t="s">
         <v>258</v>
@@ -4355,7 +4355,7 @@
         <v>576</v>
       </c>
       <c r="B175" s="3">
-        <v>326</v>
+        <v>3026</v>
       </c>
       <c r="C175" t="s">
         <v>259</v>
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="B176" s="3">
-        <v>327</v>
+        <v>3027</v>
       </c>
       <c r="C176" t="s">
         <v>80</v>
@@ -4377,7 +4377,7 @@
         <v>579</v>
       </c>
       <c r="B177" s="3">
-        <v>328</v>
+        <v>3028</v>
       </c>
       <c r="C177" t="s">
         <v>77</v>
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="3">
-        <v>329</v>
+        <v>3029</v>
       </c>
       <c r="C178" t="s">
         <v>79</v>
@@ -4399,7 +4399,7 @@
         <v>580</v>
       </c>
       <c r="B179" s="3">
-        <v>330</v>
+        <v>3030</v>
       </c>
       <c r="C179" t="s">
         <v>82</v>
@@ -4410,7 +4410,7 @@
         <v>570</v>
       </c>
       <c r="B180" s="3">
-        <v>331</v>
+        <v>3031</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="3">
-        <v>332</v>
+        <v>3032</v>
       </c>
       <c r="C181" t="s">
         <v>84</v>
@@ -4432,7 +4432,7 @@
         <v>579</v>
       </c>
       <c r="B182" s="3">
-        <v>333</v>
+        <v>3033</v>
       </c>
       <c r="C182" t="s">
         <v>102</v>
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="3">
-        <v>334</v>
+        <v>3034</v>
       </c>
       <c r="C183" t="s">
         <v>336</v>
@@ -4454,7 +4454,7 @@
         <v>581</v>
       </c>
       <c r="B184" s="3">
-        <v>335</v>
+        <v>3035</v>
       </c>
       <c r="C184" t="s">
         <v>147</v>
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="3">
-        <v>336</v>
+        <v>3036</v>
       </c>
       <c r="C185" t="s">
         <v>397</v>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="3">
-        <v>337</v>
+        <v>3037</v>
       </c>
       <c r="C186" t="s">
         <v>396</v>
@@ -4487,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="3">
-        <v>338</v>
+        <v>3038</v>
       </c>
       <c r="C187" t="s">
         <v>398</v>
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="3">
-        <v>339</v>
+        <v>3039</v>
       </c>
       <c r="C188" t="s">
         <v>337</v>
@@ -4509,7 +4509,7 @@
         <v>581</v>
       </c>
       <c r="B189" s="3">
-        <v>340</v>
+        <v>3040</v>
       </c>
       <c r="C189" t="s">
         <v>149</v>
@@ -4520,7 +4520,7 @@
         <v>582</v>
       </c>
       <c r="B190" s="3">
-        <v>341</v>
+        <v>3041</v>
       </c>
       <c r="C190" t="s">
         <v>338</v>
@@ -4531,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>342</v>
+        <v>3042</v>
       </c>
       <c r="C191" t="s">
         <v>260</v>
@@ -4542,7 +4542,7 @@
         <v>583</v>
       </c>
       <c r="B192" s="3">
-        <v>343</v>
+        <v>3043</v>
       </c>
       <c r="C192" t="s">
         <v>81</v>
@@ -4553,7 +4553,7 @@
         <v>584</v>
       </c>
       <c r="B193" s="3">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="C193" t="s">
         <v>54</v>
@@ -4564,7 +4564,7 @@
         <v>584</v>
       </c>
       <c r="B194" s="3">
-        <v>401</v>
+        <v>4001</v>
       </c>
       <c r="C194" t="s">
         <v>325</v>
@@ -4575,7 +4575,7 @@
         <v>584</v>
       </c>
       <c r="B195" s="3">
-        <v>402</v>
+        <v>4002</v>
       </c>
       <c r="C195" t="s">
         <v>326</v>
@@ -4586,7 +4586,7 @@
         <v>584</v>
       </c>
       <c r="B196" s="3">
-        <v>403</v>
+        <v>4003</v>
       </c>
       <c r="C196" t="s">
         <v>387</v>
@@ -4597,7 +4597,7 @@
         <v>584</v>
       </c>
       <c r="B197" s="3">
-        <v>404</v>
+        <v>4004</v>
       </c>
       <c r="C197" t="s">
         <v>327</v>
@@ -4608,7 +4608,7 @@
         <v>584</v>
       </c>
       <c r="B198" s="3">
-        <v>405</v>
+        <v>4005</v>
       </c>
       <c r="C198" t="s">
         <v>386</v>
@@ -4619,7 +4619,7 @@
         <v>584</v>
       </c>
       <c r="B199" s="3">
-        <v>406</v>
+        <v>4006</v>
       </c>
       <c r="C199" t="s">
         <v>388</v>
@@ -4630,7 +4630,7 @@
         <v>584</v>
       </c>
       <c r="B200" s="3">
-        <v>407</v>
+        <v>4007</v>
       </c>
       <c r="C200" t="s">
         <v>421</v>
@@ -4641,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="B201" s="3">
-        <v>408</v>
+        <v>4008</v>
       </c>
       <c r="C201" t="s">
         <v>389</v>
@@ -4652,7 +4652,7 @@
         <v>4</v>
       </c>
       <c r="B202" s="3">
-        <v>409</v>
+        <v>4009</v>
       </c>
       <c r="C202" t="s">
         <v>385</v>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="B203" s="3">
-        <v>410</v>
+        <v>4010</v>
       </c>
       <c r="C203" t="s">
         <v>383</v>
@@ -4674,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="B204" s="3">
-        <v>411</v>
+        <v>4011</v>
       </c>
       <c r="C204" t="s">
         <v>384</v>
@@ -4685,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="3">
-        <v>412</v>
+        <v>4012</v>
       </c>
       <c r="C205" t="s">
         <v>420</v>
@@ -4696,7 +4696,7 @@
         <v>551</v>
       </c>
       <c r="B206" s="3">
-        <v>413</v>
+        <v>4013</v>
       </c>
       <c r="C206" t="s">
         <v>233</v>
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="B207" s="3">
-        <v>414</v>
+        <v>4014</v>
       </c>
       <c r="C207" t="s">
         <v>234</v>
@@ -4718,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="3">
-        <v>415</v>
+        <v>4015</v>
       </c>
       <c r="C208" t="s">
         <v>232</v>
@@ -4729,7 +4729,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="3">
-        <v>416</v>
+        <v>4016</v>
       </c>
       <c r="C209" t="s">
         <v>231</v>
@@ -4740,7 +4740,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="3">
-        <v>417</v>
+        <v>4017</v>
       </c>
       <c r="C210" t="s">
         <v>227</v>
@@ -4751,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="B211" s="3">
-        <v>418</v>
+        <v>4018</v>
       </c>
       <c r="C211" t="s">
         <v>230</v>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="B212" s="3">
-        <v>419</v>
+        <v>4019</v>
       </c>
       <c r="C212" t="s">
         <v>229</v>
@@ -4773,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="B213" s="3">
-        <v>420</v>
+        <v>4020</v>
       </c>
       <c r="C213" t="s">
         <v>226</v>
@@ -4784,7 +4784,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="3">
-        <v>421</v>
+        <v>4021</v>
       </c>
       <c r="C214" t="s">
         <v>228</v>
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="3">
-        <v>422</v>
+        <v>4022</v>
       </c>
       <c r="C215" t="s">
         <v>330</v>
@@ -4806,7 +4806,7 @@
         <v>569</v>
       </c>
       <c r="B216" s="3">
-        <v>423</v>
+        <v>4023</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -4817,7 +4817,7 @@
         <v>585</v>
       </c>
       <c r="B217" s="3">
-        <v>424</v>
+        <v>4024</v>
       </c>
       <c r="C217" t="s">
         <v>209</v>
@@ -4828,7 +4828,7 @@
         <v>586</v>
       </c>
       <c r="B218" s="3">
-        <v>425</v>
+        <v>4025</v>
       </c>
       <c r="C218" t="s">
         <v>56</v>
@@ -4839,7 +4839,7 @@
         <v>587</v>
       </c>
       <c r="B219" s="3">
-        <v>426</v>
+        <v>4026</v>
       </c>
       <c r="C219" t="s">
         <v>55</v>
@@ -4850,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B220" s="3">
-        <v>427</v>
+        <v>4027</v>
       </c>
       <c r="C220" t="s">
         <v>53</v>
@@ -4861,7 +4861,7 @@
         <v>588</v>
       </c>
       <c r="B221" s="3">
-        <v>428</v>
+        <v>4028</v>
       </c>
       <c r="C221" t="s">
         <v>57</v>
@@ -4872,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="3">
-        <v>429</v>
+        <v>4029</v>
       </c>
       <c r="C222" t="s">
         <v>391</v>
@@ -4883,7 +4883,7 @@
         <v>559</v>
       </c>
       <c r="B223" s="3">
-        <v>430</v>
+        <v>4030</v>
       </c>
       <c r="C223" t="s">
         <v>52</v>
@@ -4894,7 +4894,7 @@
         <v>4</v>
       </c>
       <c r="B224" s="3">
-        <v>431</v>
+        <v>4031</v>
       </c>
       <c r="C224" t="s">
         <v>51</v>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="3">
-        <v>432</v>
+        <v>4032</v>
       </c>
       <c r="C225" t="s">
         <v>49</v>
@@ -4916,7 +4916,7 @@
         <v>578</v>
       </c>
       <c r="B226" s="3">
-        <v>433</v>
+        <v>4033</v>
       </c>
       <c r="C226" t="s">
         <v>50</v>
@@ -4927,7 +4927,7 @@
         <v>575</v>
       </c>
       <c r="B227" s="3">
-        <v>434</v>
+        <v>4034</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -4938,7 +4938,7 @@
         <v>551</v>
       </c>
       <c r="B228" s="3">
-        <v>435</v>
+        <v>4035</v>
       </c>
       <c r="C228" t="s">
         <v>73</v>
@@ -4949,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="B229" s="3">
-        <v>436</v>
+        <v>4036</v>
       </c>
       <c r="C229" t="s">
         <v>239</v>
@@ -4960,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="B230" s="3">
-        <v>437</v>
+        <v>4037</v>
       </c>
       <c r="C230" t="s">
         <v>390</v>
@@ -4971,7 +4971,7 @@
         <v>589</v>
       </c>
       <c r="B231" s="3">
-        <v>438</v>
+        <v>4038</v>
       </c>
       <c r="C231" t="s">
         <v>46</v>
@@ -4982,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="B232" s="3">
-        <v>439</v>
+        <v>4039</v>
       </c>
       <c r="C232" t="s">
         <v>44</v>
@@ -4993,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="B233" s="3">
-        <v>440</v>
+        <v>4040</v>
       </c>
       <c r="C233" t="s">
         <v>48</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B234" s="3">
-        <v>441</v>
+        <v>4041</v>
       </c>
       <c r="C234" t="s">
         <v>45</v>
@@ -5015,7 +5015,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="3">
-        <v>442</v>
+        <v>4042</v>
       </c>
       <c r="C235" t="s">
         <v>238</v>
@@ -5026,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="3">
-        <v>443</v>
+        <v>4043</v>
       </c>
       <c r="C236" t="s">
         <v>237</v>
@@ -5037,7 +5037,7 @@
         <v>551</v>
       </c>
       <c r="B237" s="3">
-        <v>444</v>
+        <v>4044</v>
       </c>
       <c r="C237" t="s">
         <v>177</v>
@@ -5048,7 +5048,7 @@
         <v>585</v>
       </c>
       <c r="B238" s="3">
-        <v>445</v>
+        <v>4045</v>
       </c>
       <c r="C238" t="s">
         <v>235</v>
@@ -5059,7 +5059,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="3">
-        <v>446</v>
+        <v>4046</v>
       </c>
       <c r="C239" t="s">
         <v>236</v>
@@ -5070,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="B240" s="3">
-        <v>447</v>
+        <v>4047</v>
       </c>
       <c r="C240" t="s">
         <v>47</v>
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="B241" s="3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C241" t="s">
         <v>61</v>
@@ -5092,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="B242" s="3">
-        <v>501</v>
+        <v>5001</v>
       </c>
       <c r="C242" t="s">
         <v>331</v>
@@ -5103,7 +5103,7 @@
         <v>590</v>
       </c>
       <c r="B243" s="3">
-        <v>502</v>
+        <v>5002</v>
       </c>
       <c r="C243" t="s">
         <v>92</v>
@@ -5114,7 +5114,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="3">
-        <v>503</v>
+        <v>5003</v>
       </c>
       <c r="C244" t="s">
         <v>242</v>
@@ -5125,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="B245" s="3">
-        <v>504</v>
+        <v>5004</v>
       </c>
       <c r="C245" t="s">
         <v>240</v>
@@ -5136,7 +5136,7 @@
         <v>5</v>
       </c>
       <c r="B246" s="3">
-        <v>505</v>
+        <v>5005</v>
       </c>
       <c r="C246" t="s">
         <v>241</v>
@@ -5147,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="B247" s="3">
-        <v>506</v>
+        <v>5006</v>
       </c>
       <c r="C247" t="s">
         <v>393</v>
@@ -5158,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="B248" s="3">
-        <v>507</v>
+        <v>5007</v>
       </c>
       <c r="C248" t="s">
         <v>244</v>
@@ -5169,7 +5169,7 @@
         <v>564</v>
       </c>
       <c r="B249" s="3">
-        <v>508</v>
+        <v>5008</v>
       </c>
       <c r="C249" t="s">
         <v>41</v>
@@ -5180,7 +5180,7 @@
         <v>5</v>
       </c>
       <c r="B250" s="3">
-        <v>509</v>
+        <v>5009</v>
       </c>
       <c r="C250" t="s">
         <v>392</v>
@@ -5191,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="B251" s="3">
-        <v>510</v>
+        <v>5010</v>
       </c>
       <c r="C251" t="s">
         <v>243</v>
@@ -5202,7 +5202,7 @@
         <v>5</v>
       </c>
       <c r="B252" s="3">
-        <v>511</v>
+        <v>5011</v>
       </c>
       <c r="C252" t="s">
         <v>60</v>
@@ -5213,7 +5213,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="3">
-        <v>512</v>
+        <v>5012</v>
       </c>
       <c r="C253" t="s">
         <v>58</v>
@@ -5224,7 +5224,7 @@
         <v>564</v>
       </c>
       <c r="B254" s="3">
-        <v>513</v>
+        <v>5013</v>
       </c>
       <c r="C254" t="s">
         <v>23</v>
@@ -5235,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="B255" s="3">
-        <v>514</v>
+        <v>5014</v>
       </c>
       <c r="C255" t="s">
         <v>246</v>
@@ -5246,7 +5246,7 @@
         <v>562</v>
       </c>
       <c r="B256" s="3">
-        <v>515</v>
+        <v>5015</v>
       </c>
       <c r="C256" t="s">
         <v>245</v>
@@ -5257,7 +5257,7 @@
         <v>591</v>
       </c>
       <c r="B257" s="3">
-        <v>516</v>
+        <v>5016</v>
       </c>
       <c r="C257" t="s">
         <v>528</v>
@@ -5268,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="B258" s="3">
-        <v>517</v>
+        <v>5017</v>
       </c>
       <c r="C258" t="s">
         <v>65</v>
@@ -5279,7 +5279,7 @@
         <v>5</v>
       </c>
       <c r="B259" s="3">
-        <v>518</v>
+        <v>5018</v>
       </c>
       <c r="C259" t="s">
         <v>62</v>
@@ -5290,7 +5290,7 @@
         <v>592</v>
       </c>
       <c r="B260" s="3">
-        <v>519</v>
+        <v>5019</v>
       </c>
       <c r="C260" t="s">
         <v>64</v>
@@ -5301,7 +5301,7 @@
         <v>5</v>
       </c>
       <c r="B261" s="3">
-        <v>520</v>
+        <v>5020</v>
       </c>
       <c r="C261" t="s">
         <v>247</v>
@@ -5312,7 +5312,7 @@
         <v>564</v>
       </c>
       <c r="B262" s="3">
-        <v>521</v>
+        <v>5021</v>
       </c>
       <c r="C262" t="s">
         <v>30</v>
@@ -5323,7 +5323,7 @@
         <v>5</v>
       </c>
       <c r="B263" s="3">
-        <v>522</v>
+        <v>5022</v>
       </c>
       <c r="C263" t="s">
         <v>444</v>
@@ -5334,7 +5334,7 @@
         <v>5</v>
       </c>
       <c r="B264" s="3">
-        <v>523</v>
+        <v>5023</v>
       </c>
       <c r="C264" t="s">
         <v>248</v>
@@ -5345,7 +5345,7 @@
         <v>557</v>
       </c>
       <c r="B265" s="3">
-        <v>524</v>
+        <v>5024</v>
       </c>
       <c r="C265" t="s">
         <v>333</v>
@@ -5356,7 +5356,7 @@
         <v>564</v>
       </c>
       <c r="B266" s="3">
-        <v>525</v>
+        <v>5025</v>
       </c>
       <c r="C266" t="s">
         <v>34</v>
@@ -5367,7 +5367,7 @@
         <v>575</v>
       </c>
       <c r="B267" s="3">
-        <v>526</v>
+        <v>5026</v>
       </c>
       <c r="C267" t="s">
         <v>35</v>
@@ -5378,7 +5378,7 @@
         <v>593</v>
       </c>
       <c r="B268" s="3">
-        <v>527</v>
+        <v>5027</v>
       </c>
       <c r="C268" t="s">
         <v>69</v>
@@ -5389,7 +5389,7 @@
         <v>5</v>
       </c>
       <c r="B269" s="3">
-        <v>528</v>
+        <v>5028</v>
       </c>
       <c r="C269" t="s">
         <v>66</v>
@@ -5400,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="B270" s="3">
-        <v>529</v>
+        <v>5029</v>
       </c>
       <c r="C270" t="s">
         <v>67</v>
@@ -5411,7 +5411,7 @@
         <v>574</v>
       </c>
       <c r="B271" s="3">
-        <v>530</v>
+        <v>5030</v>
       </c>
       <c r="C271" t="s">
         <v>38</v>
@@ -5422,7 +5422,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="3">
-        <v>531</v>
+        <v>5031</v>
       </c>
       <c r="C272" t="s">
         <v>332</v>
@@ -5433,7 +5433,7 @@
         <v>5</v>
       </c>
       <c r="B273" s="3">
-        <v>532</v>
+        <v>5032</v>
       </c>
       <c r="C273" t="s">
         <v>68</v>
@@ -5444,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="B274" s="3">
-        <v>533</v>
+        <v>5033</v>
       </c>
       <c r="C274" t="s">
         <v>251</v>
@@ -5455,7 +5455,7 @@
         <v>594</v>
       </c>
       <c r="B275" s="3">
-        <v>534</v>
+        <v>5034</v>
       </c>
       <c r="C275" t="s">
         <v>249</v>
@@ -5466,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="B276" s="3">
-        <v>535</v>
+        <v>5035</v>
       </c>
       <c r="C276" t="s">
         <v>250</v>
@@ -5477,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="B277" s="3">
-        <v>536</v>
+        <v>5036</v>
       </c>
       <c r="C277" t="s">
         <v>182</v>
@@ -5488,7 +5488,7 @@
         <v>595</v>
       </c>
       <c r="B278" s="3">
-        <v>537</v>
+        <v>5037</v>
       </c>
       <c r="C278" t="s">
         <v>71</v>
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="B279" s="3">
-        <v>538</v>
+        <v>5038</v>
       </c>
       <c r="C279" t="s">
         <v>543</v>
@@ -5510,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="B280" s="3">
-        <v>539</v>
+        <v>5039</v>
       </c>
       <c r="C280" t="s">
         <v>184</v>
@@ -5521,7 +5521,7 @@
         <v>5</v>
       </c>
       <c r="B281" s="3">
-        <v>540</v>
+        <v>5040</v>
       </c>
       <c r="C281" t="s">
         <v>181</v>
@@ -5532,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="B282" s="3">
-        <v>541</v>
+        <v>5041</v>
       </c>
       <c r="C282" t="s">
         <v>183</v>
@@ -5543,7 +5543,7 @@
         <v>583</v>
       </c>
       <c r="B283" s="3">
-        <v>542</v>
+        <v>5042</v>
       </c>
       <c r="C283" t="s">
         <v>81</v>
@@ -5554,7 +5554,7 @@
         <v>5</v>
       </c>
       <c r="B284" s="3">
-        <v>543</v>
+        <v>5043</v>
       </c>
       <c r="C284" t="s">
         <v>370</v>
@@ -5565,7 +5565,7 @@
         <v>5</v>
       </c>
       <c r="B285" s="3">
-        <v>544</v>
+        <v>5044</v>
       </c>
       <c r="C285" t="s">
         <v>185</v>
@@ -5576,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="B286" s="3">
-        <v>545</v>
+        <v>5045</v>
       </c>
       <c r="C286" t="s">
         <v>544</v>
@@ -5587,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="B287" s="3">
-        <v>546</v>
+        <v>5046</v>
       </c>
       <c r="C287" t="s">
         <v>70</v>
@@ -5598,7 +5598,7 @@
         <v>5</v>
       </c>
       <c r="B288" s="3">
-        <v>547</v>
+        <v>5047</v>
       </c>
       <c r="C288" t="s">
         <v>252</v>
@@ -5609,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="B289" s="3">
-        <v>548</v>
+        <v>5048</v>
       </c>
       <c r="C289" t="s">
         <v>72</v>
@@ -5620,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="B290" s="3">
-        <v>549</v>
+        <v>5049</v>
       </c>
       <c r="C290" t="s">
         <v>436</v>
@@ -5631,7 +5631,7 @@
         <v>5</v>
       </c>
       <c r="B291" s="3">
-        <v>550</v>
+        <v>5050</v>
       </c>
       <c r="C291" t="s">
         <v>59</v>
@@ -5642,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="B292" s="3">
-        <v>551</v>
+        <v>5051</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>466</v>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="B293" s="3">
-        <v>552</v>
+        <v>5052</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>467</v>
@@ -5664,7 +5664,7 @@
         <v>5</v>
       </c>
       <c r="B294" s="3">
-        <v>553</v>
+        <v>5053</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>468</v>
@@ -5675,7 +5675,7 @@
         <v>5</v>
       </c>
       <c r="B295" s="3">
-        <v>554</v>
+        <v>5054</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>469</v>
@@ -5686,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="B296" s="3">
-        <v>555</v>
+        <v>5055</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>470</v>
@@ -5697,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="B297" s="3">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="C297" t="s">
         <v>530</v>
@@ -5708,7 +5708,7 @@
         <v>577</v>
       </c>
       <c r="B298" s="3">
-        <v>601</v>
+        <v>6001</v>
       </c>
       <c r="C298" t="s">
         <v>187</v>
@@ -5719,7 +5719,7 @@
         <v>6</v>
       </c>
       <c r="B299" s="3">
-        <v>602</v>
+        <v>6002</v>
       </c>
       <c r="C299" t="s">
         <v>437</v>
@@ -5730,7 +5730,7 @@
         <v>577</v>
       </c>
       <c r="B300" s="3">
-        <v>603</v>
+        <v>6003</v>
       </c>
       <c r="C300" t="s">
         <v>253</v>
@@ -5741,7 +5741,7 @@
         <v>6</v>
       </c>
       <c r="B301" s="3">
-        <v>604</v>
+        <v>6004</v>
       </c>
       <c r="C301" t="s">
         <v>541</v>
@@ -5752,7 +5752,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="3">
-        <v>605</v>
+        <v>6005</v>
       </c>
       <c r="C302" t="s">
         <v>540</v>
@@ -5763,7 +5763,7 @@
         <v>6</v>
       </c>
       <c r="B303" s="3">
-        <v>606</v>
+        <v>6006</v>
       </c>
       <c r="C303" t="s">
         <v>614</v>
@@ -5774,7 +5774,7 @@
         <v>6</v>
       </c>
       <c r="B304" s="3">
-        <v>607</v>
+        <v>6007</v>
       </c>
       <c r="C304" t="s">
         <v>414</v>
@@ -5785,7 +5785,7 @@
         <v>596</v>
       </c>
       <c r="B305" s="3">
-        <v>608</v>
+        <v>6008</v>
       </c>
       <c r="C305" t="s">
         <v>189</v>
@@ -5796,7 +5796,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="3">
-        <v>609</v>
+        <v>6009</v>
       </c>
       <c r="C306" t="s">
         <v>188</v>
@@ -5807,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="B307" s="3">
-        <v>610</v>
+        <v>6010</v>
       </c>
       <c r="C307" t="s">
         <v>190</v>
@@ -5818,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="3">
-        <v>611</v>
+        <v>6011</v>
       </c>
       <c r="C308" t="s">
         <v>371</v>
@@ -5829,7 +5829,7 @@
         <v>566</v>
       </c>
       <c r="B309" s="3">
-        <v>612</v>
+        <v>6012</v>
       </c>
       <c r="C309" t="s">
         <v>25</v>
@@ -5840,7 +5840,7 @@
         <v>6</v>
       </c>
       <c r="B310" s="3">
-        <v>613</v>
+        <v>6013</v>
       </c>
       <c r="C310" t="s">
         <v>438</v>
@@ -5851,7 +5851,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="3">
-        <v>614</v>
+        <v>6014</v>
       </c>
       <c r="C311" t="s">
         <v>192</v>
@@ -5862,7 +5862,7 @@
         <v>6</v>
       </c>
       <c r="B312" s="3">
-        <v>615</v>
+        <v>6015</v>
       </c>
       <c r="C312" t="s">
         <v>191</v>
@@ -5873,7 +5873,7 @@
         <v>592</v>
       </c>
       <c r="B313" s="3">
-        <v>616</v>
+        <v>6016</v>
       </c>
       <c r="C313" t="s">
         <v>64</v>
@@ -5884,7 +5884,7 @@
         <v>597</v>
       </c>
       <c r="B314" s="3">
-        <v>617</v>
+        <v>6017</v>
       </c>
       <c r="C314" t="s">
         <v>329</v>
@@ -5895,7 +5895,7 @@
         <v>588</v>
       </c>
       <c r="B315" s="3">
-        <v>618</v>
+        <v>6018</v>
       </c>
       <c r="C315" t="s">
         <v>57</v>
@@ -5906,7 +5906,7 @@
         <v>6</v>
       </c>
       <c r="B316" s="3">
-        <v>619</v>
+        <v>6019</v>
       </c>
       <c r="C316" t="s">
         <v>372</v>
@@ -5917,7 +5917,7 @@
         <v>6</v>
       </c>
       <c r="B317" s="3">
-        <v>620</v>
+        <v>6020</v>
       </c>
       <c r="C317" t="s">
         <v>373</v>
@@ -5928,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="B318" s="3">
-        <v>621</v>
+        <v>6021</v>
       </c>
       <c r="C318" t="s">
         <v>194</v>
@@ -5939,7 +5939,7 @@
         <v>6</v>
       </c>
       <c r="B319" s="3">
-        <v>622</v>
+        <v>6022</v>
       </c>
       <c r="C319" t="s">
         <v>374</v>
@@ -5950,7 +5950,7 @@
         <v>577</v>
       </c>
       <c r="B320" s="3">
-        <v>623</v>
+        <v>6023</v>
       </c>
       <c r="C320" t="s">
         <v>193</v>
@@ -5961,7 +5961,7 @@
         <v>593</v>
       </c>
       <c r="B321" s="3">
-        <v>624</v>
+        <v>6024</v>
       </c>
       <c r="C321" t="s">
         <v>69</v>
@@ -5972,7 +5972,7 @@
         <v>566</v>
       </c>
       <c r="B322" s="3">
-        <v>625</v>
+        <v>6025</v>
       </c>
       <c r="C322" t="s">
         <v>36</v>
@@ -5983,7 +5983,7 @@
         <v>553</v>
       </c>
       <c r="B323" s="3">
-        <v>626</v>
+        <v>6026</v>
       </c>
       <c r="C323" t="s">
         <v>75</v>
@@ -5994,7 +5994,7 @@
         <v>6</v>
       </c>
       <c r="B324" s="3">
-        <v>627</v>
+        <v>6027</v>
       </c>
       <c r="C324" t="s">
         <v>195</v>
@@ -6005,7 +6005,7 @@
         <v>598</v>
       </c>
       <c r="B325" s="3">
-        <v>628</v>
+        <v>6028</v>
       </c>
       <c r="C325" t="s">
         <v>439</v>
@@ -6016,7 +6016,7 @@
         <v>6</v>
       </c>
       <c r="B326" s="3">
-        <v>629</v>
+        <v>6029</v>
       </c>
       <c r="C326" t="s">
         <v>453</v>
@@ -6027,7 +6027,7 @@
         <v>6</v>
       </c>
       <c r="B327" s="3">
-        <v>630</v>
+        <v>6030</v>
       </c>
       <c r="C327" t="s">
         <v>196</v>
@@ -6038,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="B328" s="3">
-        <v>631</v>
+        <v>6031</v>
       </c>
       <c r="C328" t="s">
         <v>197</v>
@@ -6049,7 +6049,7 @@
         <v>6</v>
       </c>
       <c r="B329" s="3">
-        <v>632</v>
+        <v>6032</v>
       </c>
       <c r="C329" t="s">
         <v>440</v>
@@ -6060,7 +6060,7 @@
         <v>6</v>
       </c>
       <c r="B330" s="3">
-        <v>633</v>
+        <v>6033</v>
       </c>
       <c r="C330" t="s">
         <v>200</v>
@@ -6071,7 +6071,7 @@
         <v>553</v>
       </c>
       <c r="B331" s="3">
-        <v>634</v>
+        <v>6034</v>
       </c>
       <c r="C331" t="s">
         <v>198</v>
@@ -6082,7 +6082,7 @@
         <v>599</v>
       </c>
       <c r="B332" s="3">
-        <v>635</v>
+        <v>6035</v>
       </c>
       <c r="C332" t="s">
         <v>199</v>
@@ -6093,7 +6093,7 @@
         <v>6</v>
       </c>
       <c r="B333" s="3">
-        <v>636</v>
+        <v>6036</v>
       </c>
       <c r="C333" t="s">
         <v>441</v>
@@ -6104,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="B334" s="3">
-        <v>637</v>
+        <v>6037</v>
       </c>
       <c r="C334" t="s">
         <v>186</v>
@@ -6115,7 +6115,7 @@
         <v>600</v>
       </c>
       <c r="B335" s="3">
-        <v>638</v>
+        <v>6038</v>
       </c>
       <c r="C335" t="s">
         <v>529</v>
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="B336" s="3">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="C336" t="s">
         <v>202</v>
@@ -6137,7 +6137,7 @@
         <v>550</v>
       </c>
       <c r="B337" s="3">
-        <v>701</v>
+        <v>7001</v>
       </c>
       <c r="C337" t="s">
         <v>86</v>
@@ -6148,7 +6148,7 @@
         <v>7</v>
       </c>
       <c r="B338" s="3">
-        <v>702</v>
+        <v>7002</v>
       </c>
       <c r="C338" t="s">
         <v>321</v>
@@ -6159,7 +6159,7 @@
         <v>7</v>
       </c>
       <c r="B339" s="3">
-        <v>703</v>
+        <v>7003</v>
       </c>
       <c r="C339" t="s">
         <v>375</v>
@@ -6170,7 +6170,7 @@
         <v>585</v>
       </c>
       <c r="B340" s="3">
-        <v>704</v>
+        <v>7004</v>
       </c>
       <c r="C340" t="s">
         <v>235</v>
@@ -6181,7 +6181,7 @@
         <v>7</v>
       </c>
       <c r="B341" s="3">
-        <v>705</v>
+        <v>7005</v>
       </c>
       <c r="C341" t="s">
         <v>376</v>
@@ -6192,7 +6192,7 @@
         <v>7</v>
       </c>
       <c r="B342" s="3">
-        <v>706</v>
+        <v>7006</v>
       </c>
       <c r="C342" t="s">
         <v>204</v>
@@ -6203,7 +6203,7 @@
         <v>7</v>
       </c>
       <c r="B343" s="3">
-        <v>707</v>
+        <v>7007</v>
       </c>
       <c r="C343" t="s">
         <v>201</v>
@@ -6214,7 +6214,7 @@
         <v>599</v>
       </c>
       <c r="B344" s="3">
-        <v>708</v>
+        <v>7008</v>
       </c>
       <c r="C344" t="s">
         <v>199</v>
@@ -6225,7 +6225,7 @@
         <v>7</v>
       </c>
       <c r="B345" s="3">
-        <v>709</v>
+        <v>7009</v>
       </c>
       <c r="C345" t="s">
         <v>203</v>
@@ -6236,7 +6236,7 @@
         <v>7</v>
       </c>
       <c r="B346" s="3">
-        <v>710</v>
+        <v>7010</v>
       </c>
       <c r="C346" t="s">
         <v>442</v>
@@ -6247,7 +6247,7 @@
         <v>601</v>
       </c>
       <c r="B347" s="3">
-        <v>711</v>
+        <v>7011</v>
       </c>
       <c r="C347" t="s">
         <v>124</v>
@@ -6258,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="B348" s="3">
-        <v>712</v>
+        <v>7012</v>
       </c>
       <c r="C348" t="s">
         <v>415</v>
@@ -6269,7 +6269,7 @@
         <v>7</v>
       </c>
       <c r="B349" s="3">
-        <v>713</v>
+        <v>7013</v>
       </c>
       <c r="C349" t="s">
         <v>416</v>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B350" s="3">
-        <v>714</v>
+        <v>7014</v>
       </c>
       <c r="C350" t="s">
         <v>379</v>
@@ -6291,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="B351" s="3">
-        <v>715</v>
+        <v>7015</v>
       </c>
       <c r="C351" t="s">
         <v>377</v>
@@ -6302,7 +6302,7 @@
         <v>594</v>
       </c>
       <c r="B352" s="3">
-        <v>716</v>
+        <v>7016</v>
       </c>
       <c r="C352" t="s">
         <v>249</v>
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="B353" s="3">
-        <v>717</v>
+        <v>7017</v>
       </c>
       <c r="C353" t="s">
         <v>378</v>
@@ -6324,7 +6324,7 @@
         <v>568</v>
       </c>
       <c r="B354" s="3">
-        <v>718</v>
+        <v>7018</v>
       </c>
       <c r="C354" t="s">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>7</v>
       </c>
       <c r="B355" s="3">
-        <v>719</v>
+        <v>7019</v>
       </c>
       <c r="C355" t="s">
         <v>381</v>
@@ -6346,7 +6346,7 @@
         <v>7</v>
       </c>
       <c r="B356" s="3">
-        <v>720</v>
+        <v>7020</v>
       </c>
       <c r="C356" t="s">
         <v>380</v>
@@ -6357,7 +6357,7 @@
         <v>602</v>
       </c>
       <c r="B357" s="3">
-        <v>721</v>
+        <v>7021</v>
       </c>
       <c r="C357" t="s">
         <v>207</v>
@@ -6368,7 +6368,7 @@
         <v>7</v>
       </c>
       <c r="B358" s="3">
-        <v>722</v>
+        <v>7022</v>
       </c>
       <c r="C358" t="s">
         <v>205</v>
@@ -6379,7 +6379,7 @@
         <v>603</v>
       </c>
       <c r="B359" s="3">
-        <v>723</v>
+        <v>7023</v>
       </c>
       <c r="C359" t="s">
         <v>208</v>
@@ -6390,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="B360" s="3">
-        <v>724</v>
+        <v>7024</v>
       </c>
       <c r="C360" t="s">
         <v>382</v>
@@ -6401,7 +6401,7 @@
         <v>580</v>
       </c>
       <c r="B361" s="3">
-        <v>725</v>
+        <v>7025</v>
       </c>
       <c r="C361" t="s">
         <v>82</v>
@@ -6412,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="B362" s="3">
-        <v>726</v>
+        <v>7026</v>
       </c>
       <c r="C362" t="s">
         <v>206</v>
@@ -6423,7 +6423,7 @@
         <v>585</v>
       </c>
       <c r="B363" s="3">
-        <v>727</v>
+        <v>7027</v>
       </c>
       <c r="C363" t="s">
         <v>209</v>
@@ -6434,7 +6434,7 @@
         <v>7</v>
       </c>
       <c r="B364" s="3">
-        <v>728</v>
+        <v>7028</v>
       </c>
       <c r="C364" t="s">
         <v>210</v>
@@ -6445,7 +6445,7 @@
         <v>7</v>
       </c>
       <c r="B365" s="3">
-        <v>729</v>
+        <v>7029</v>
       </c>
       <c r="C365" t="s">
         <v>211</v>
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="B366" s="3">
-        <v>730</v>
+        <v>7030</v>
       </c>
       <c r="C366" t="s">
         <v>212</v>
@@ -6467,7 +6467,7 @@
         <v>7</v>
       </c>
       <c r="B367" s="3">
-        <v>731</v>
+        <v>7031</v>
       </c>
       <c r="C367" t="s">
         <v>215</v>
@@ -6478,7 +6478,7 @@
         <v>7</v>
       </c>
       <c r="B368" s="3">
-        <v>732</v>
+        <v>7032</v>
       </c>
       <c r="C368" t="s">
         <v>213</v>
@@ -6489,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="B369" s="3">
-        <v>733</v>
+        <v>7033</v>
       </c>
       <c r="C369" t="s">
         <v>214</v>
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="B370" s="3">
-        <v>734</v>
+        <v>7034</v>
       </c>
       <c r="C370" t="s">
         <v>417</v>
@@ -6511,7 +6511,7 @@
         <v>568</v>
       </c>
       <c r="B371" s="3">
-        <v>735</v>
+        <v>7035</v>
       </c>
       <c r="C371" t="s">
         <v>20</v>
@@ -6522,7 +6522,7 @@
         <v>7</v>
       </c>
       <c r="B372" s="3">
-        <v>736</v>
+        <v>7036</v>
       </c>
       <c r="C372" t="s">
         <v>418</v>
@@ -6533,7 +6533,7 @@
         <v>550</v>
       </c>
       <c r="B373" s="3">
-        <v>737</v>
+        <v>7037</v>
       </c>
       <c r="C373" t="s">
         <v>158</v>
@@ -6544,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="B374" s="3">
-        <v>738</v>
+        <v>7038</v>
       </c>
       <c r="C374" t="s">
         <v>323</v>
@@ -6555,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="B375" s="3">
-        <v>739</v>
+        <v>7039</v>
       </c>
       <c r="C375" t="s">
         <v>218</v>
@@ -6566,7 +6566,7 @@
         <v>7</v>
       </c>
       <c r="B376" s="3">
-        <v>740</v>
+        <v>7040</v>
       </c>
       <c r="C376" t="s">
         <v>322</v>
@@ -6577,7 +6577,7 @@
         <v>550</v>
       </c>
       <c r="B377" s="3">
-        <v>741</v>
+        <v>7041</v>
       </c>
       <c r="C377" t="s">
         <v>171</v>
@@ -6588,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="B378" s="3">
-        <v>742</v>
+        <v>7042</v>
       </c>
       <c r="C378" t="s">
         <v>217</v>
@@ -6599,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="B379" s="3">
-        <v>743</v>
+        <v>7043</v>
       </c>
       <c r="C379" t="s">
         <v>216</v>
@@ -6610,7 +6610,7 @@
         <v>7</v>
       </c>
       <c r="B380" s="3">
-        <v>744</v>
+        <v>7044</v>
       </c>
       <c r="C380" t="s">
         <v>89</v>
@@ -6621,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="B381" s="3">
-        <v>745</v>
+        <v>7045</v>
       </c>
       <c r="C381" t="s">
         <v>261</v>
@@ -6632,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="B382" s="3">
-        <v>746</v>
+        <v>7046</v>
       </c>
       <c r="C382" t="s">
         <v>88</v>
@@ -6643,7 +6643,7 @@
         <v>7</v>
       </c>
       <c r="B383" s="3">
-        <v>747</v>
+        <v>7047</v>
       </c>
       <c r="C383" t="s">
         <v>85</v>
@@ -6654,7 +6654,7 @@
         <v>7</v>
       </c>
       <c r="B384" s="3">
-        <v>748</v>
+        <v>7048</v>
       </c>
       <c r="C384" t="s">
         <v>90</v>
@@ -6665,7 +6665,7 @@
         <v>7</v>
       </c>
       <c r="B385" s="3">
-        <v>749</v>
+        <v>7049</v>
       </c>
       <c r="C385" t="s">
         <v>262</v>
@@ -6676,7 +6676,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="3">
-        <v>750</v>
+        <v>7050</v>
       </c>
       <c r="C386" t="s">
         <v>87</v>
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="B387" s="3">
-        <v>751</v>
+        <v>7051</v>
       </c>
       <c r="C387" t="s">
         <v>483</v>
@@ -6698,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="B388" s="3">
-        <v>752</v>
+        <v>7052</v>
       </c>
       <c r="C388" t="s">
         <v>484</v>
@@ -6709,7 +6709,7 @@
         <v>8</v>
       </c>
       <c r="B389" s="3">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="C389" t="s">
         <v>263</v>
@@ -6720,7 +6720,7 @@
         <v>595</v>
       </c>
       <c r="B390" s="3">
-        <v>801</v>
+        <v>8001</v>
       </c>
       <c r="C390" t="s">
         <v>71</v>
@@ -6731,7 +6731,7 @@
         <v>8</v>
       </c>
       <c r="B391" s="3">
-        <v>802</v>
+        <v>8002</v>
       </c>
       <c r="C391" t="s">
         <v>341</v>
@@ -6742,7 +6742,7 @@
         <v>8</v>
       </c>
       <c r="B392" s="3">
-        <v>803</v>
+        <v>8003</v>
       </c>
       <c r="C392" t="s">
         <v>339</v>
@@ -6753,7 +6753,7 @@
         <v>573</v>
       </c>
       <c r="B393" s="3">
-        <v>804</v>
+        <v>8004</v>
       </c>
       <c r="C393" t="s">
         <v>4</v>
@@ -6764,7 +6764,7 @@
         <v>604</v>
       </c>
       <c r="B394" s="3">
-        <v>805</v>
+        <v>8005</v>
       </c>
       <c r="C394" t="s">
         <v>340</v>
@@ -6775,7 +6775,7 @@
         <v>8</v>
       </c>
       <c r="B395" s="3">
-        <v>806</v>
+        <v>8006</v>
       </c>
       <c r="C395" t="s">
         <v>400</v>
@@ -6786,7 +6786,7 @@
         <v>582</v>
       </c>
       <c r="B396" s="3">
-        <v>807</v>
+        <v>8007</v>
       </c>
       <c r="C396" t="s">
         <v>338</v>
@@ -6797,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="B397" s="3">
-        <v>808</v>
+        <v>8008</v>
       </c>
       <c r="C397" t="s">
         <v>399</v>
@@ -6808,7 +6808,7 @@
         <v>8</v>
       </c>
       <c r="B398" s="3">
-        <v>809</v>
+        <v>8009</v>
       </c>
       <c r="C398" t="s">
         <v>266</v>
@@ -6819,7 +6819,7 @@
         <v>605</v>
       </c>
       <c r="B399" s="3">
-        <v>810</v>
+        <v>8010</v>
       </c>
       <c r="C399" t="s">
         <v>150</v>
@@ -6830,7 +6830,7 @@
         <v>8</v>
       </c>
       <c r="B400" s="3">
-        <v>811</v>
+        <v>8011</v>
       </c>
       <c r="C400" t="s">
         <v>527</v>
@@ -6841,7 +6841,7 @@
         <v>8</v>
       </c>
       <c r="B401" s="3">
-        <v>812</v>
+        <v>8012</v>
       </c>
       <c r="C401" t="s">
         <v>268</v>
@@ -6852,7 +6852,7 @@
         <v>8</v>
       </c>
       <c r="B402" s="3">
-        <v>813</v>
+        <v>8013</v>
       </c>
       <c r="C402" t="s">
         <v>265</v>
@@ -6863,7 +6863,7 @@
         <v>8</v>
       </c>
       <c r="B403" s="3">
-        <v>814</v>
+        <v>8014</v>
       </c>
       <c r="C403" t="s">
         <v>267</v>
@@ -6874,7 +6874,7 @@
         <v>8</v>
       </c>
       <c r="B404" s="3">
-        <v>815</v>
+        <v>8015</v>
       </c>
       <c r="C404" t="s">
         <v>401</v>
@@ -6885,7 +6885,7 @@
         <v>8</v>
       </c>
       <c r="B405" s="3">
-        <v>816</v>
+        <v>8016</v>
       </c>
       <c r="C405" t="s">
         <v>423</v>
@@ -6896,7 +6896,7 @@
         <v>605</v>
       </c>
       <c r="B406" s="3">
-        <v>817</v>
+        <v>8017</v>
       </c>
       <c r="C406" t="s">
         <v>264</v>
@@ -6907,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="B407" s="3">
-        <v>900</v>
+        <v>9000</v>
       </c>
       <c r="C407" t="s">
         <v>94</v>
@@ -6918,7 +6918,7 @@
         <v>590</v>
       </c>
       <c r="B408" s="3">
-        <v>901</v>
+        <v>9001</v>
       </c>
       <c r="C408" t="s">
         <v>92</v>
@@ -6929,7 +6929,7 @@
         <v>9</v>
       </c>
       <c r="B409" s="3">
-        <v>902</v>
+        <v>9002</v>
       </c>
       <c r="C409" t="s">
         <v>91</v>
@@ -6940,7 +6940,7 @@
         <v>9</v>
       </c>
       <c r="B410" s="3">
-        <v>903</v>
+        <v>9003</v>
       </c>
       <c r="C410" t="s">
         <v>93</v>
@@ -6951,7 +6951,7 @@
         <v>606</v>
       </c>
       <c r="B411" s="3">
-        <v>904</v>
+        <v>9004</v>
       </c>
       <c r="C411" t="s">
         <v>95</v>
@@ -6962,7 +6962,7 @@
         <v>9</v>
       </c>
       <c r="B412" s="3">
-        <v>905</v>
+        <v>9005</v>
       </c>
       <c r="C412" t="s">
         <v>96</v>
@@ -6973,7 +6973,7 @@
         <v>9</v>
       </c>
       <c r="B413" s="3">
-        <v>906</v>
+        <v>9006</v>
       </c>
       <c r="C413" t="s">
         <v>98</v>
@@ -6984,7 +6984,7 @@
         <v>9</v>
       </c>
       <c r="B414" s="3">
-        <v>907</v>
+        <v>9007</v>
       </c>
       <c r="C414" t="s">
         <v>97</v>
@@ -6995,7 +6995,7 @@
         <v>11</v>
       </c>
       <c r="B415" s="3">
-        <v>908</v>
+        <v>9008</v>
       </c>
       <c r="C415" t="s">
         <v>270</v>
@@ -7006,7 +7006,7 @@
         <v>9</v>
       </c>
       <c r="B416" s="3">
-        <v>909</v>
+        <v>9009</v>
       </c>
       <c r="C416" t="s">
         <v>342</v>
@@ -7017,7 +7017,7 @@
         <v>9</v>
       </c>
       <c r="B417" s="3">
-        <v>910</v>
+        <v>9010</v>
       </c>
       <c r="C417" t="s">
         <v>101</v>
@@ -7028,7 +7028,7 @@
         <v>9</v>
       </c>
       <c r="B418" s="3">
-        <v>911</v>
+        <v>9011</v>
       </c>
       <c r="C418" t="s">
         <v>269</v>
@@ -7039,7 +7039,7 @@
         <v>567</v>
       </c>
       <c r="B419" s="3">
-        <v>912</v>
+        <v>9012</v>
       </c>
       <c r="C419" t="s">
         <v>24</v>
@@ -7050,7 +7050,7 @@
         <v>9</v>
       </c>
       <c r="B420" s="3">
-        <v>913</v>
+        <v>9013</v>
       </c>
       <c r="C420" t="s">
         <v>99</v>
@@ -7061,7 +7061,7 @@
         <v>591</v>
       </c>
       <c r="B421" s="3">
-        <v>914</v>
+        <v>9014</v>
       </c>
       <c r="C421" t="s">
         <v>63</v>
@@ -7072,7 +7072,7 @@
         <v>9</v>
       </c>
       <c r="B422" s="3">
-        <v>915</v>
+        <v>9015</v>
       </c>
       <c r="C422" t="s">
         <v>100</v>
@@ -7083,7 +7083,7 @@
         <v>561</v>
       </c>
       <c r="B423" s="3">
-        <v>916</v>
+        <v>9016</v>
       </c>
       <c r="C423" t="s">
         <v>166</v>
@@ -7094,7 +7094,7 @@
         <v>9</v>
       </c>
       <c r="B424" s="3">
-        <v>917</v>
+        <v>9017</v>
       </c>
       <c r="C424" t="s">
         <v>402</v>
@@ -7105,7 +7105,7 @@
         <v>9</v>
       </c>
       <c r="B425" s="3">
-        <v>918</v>
+        <v>9018</v>
       </c>
       <c r="C425" t="s">
         <v>403</v>
@@ -7116,7 +7116,7 @@
         <v>586</v>
       </c>
       <c r="B426" s="3">
-        <v>919</v>
+        <v>9019</v>
       </c>
       <c r="C426" t="s">
         <v>56</v>
@@ -7127,7 +7127,7 @@
         <v>9</v>
       </c>
       <c r="B427" s="3">
-        <v>920</v>
+        <v>9020</v>
       </c>
       <c r="C427" t="s">
         <v>424</v>
@@ -7138,7 +7138,7 @@
         <v>9</v>
       </c>
       <c r="B428" s="3">
-        <v>921</v>
+        <v>9021</v>
       </c>
       <c r="C428" t="s">
         <v>404</v>
@@ -7149,7 +7149,7 @@
         <v>580</v>
       </c>
       <c r="B429" s="3">
-        <v>922</v>
+        <v>9022</v>
       </c>
       <c r="C429" t="s">
         <v>82</v>
@@ -7160,7 +7160,7 @@
         <v>9</v>
       </c>
       <c r="B430" s="3">
-        <v>923</v>
+        <v>9023</v>
       </c>
       <c r="C430" t="s">
         <v>345</v>
@@ -7171,7 +7171,7 @@
         <v>607</v>
       </c>
       <c r="B431" s="3">
-        <v>924</v>
+        <v>9024</v>
       </c>
       <c r="C431" t="s">
         <v>343</v>
@@ -7182,7 +7182,7 @@
         <v>9</v>
       </c>
       <c r="B432" s="3">
-        <v>925</v>
+        <v>9025</v>
       </c>
       <c r="C432" t="s">
         <v>346</v>
@@ -7193,7 +7193,7 @@
         <v>608</v>
       </c>
       <c r="B433" s="3">
-        <v>926</v>
+        <v>9026</v>
       </c>
       <c r="C433" t="s">
         <v>146</v>
@@ -7204,7 +7204,7 @@
         <v>9</v>
       </c>
       <c r="B434" s="3">
-        <v>927</v>
+        <v>9027</v>
       </c>
       <c r="C434" t="s">
         <v>344</v>
@@ -7215,7 +7215,7 @@
         <v>9</v>
       </c>
       <c r="B435" s="3">
-        <v>928</v>
+        <v>9028</v>
       </c>
       <c r="C435" t="s">
         <v>443</v>
@@ -7226,7 +7226,7 @@
         <v>567</v>
       </c>
       <c r="B436" s="3">
-        <v>929</v>
+        <v>9029</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7237,7 +7237,7 @@
         <v>9</v>
       </c>
       <c r="B437" s="3">
-        <v>930</v>
+        <v>9030</v>
       </c>
       <c r="C437" t="s">
         <v>485</v>
@@ -7248,7 +7248,7 @@
         <v>9</v>
       </c>
       <c r="B438" s="3">
-        <v>931</v>
+        <v>9031</v>
       </c>
       <c r="C438" t="s">
         <v>486</v>
@@ -7259,7 +7259,7 @@
         <v>604</v>
       </c>
       <c r="B439" s="3">
-        <v>932</v>
+        <v>9032</v>
       </c>
       <c r="C439" t="s">
         <v>487</v>
@@ -7270,7 +7270,7 @@
         <v>9</v>
       </c>
       <c r="B440" s="3">
-        <v>933</v>
+        <v>9033</v>
       </c>
       <c r="C440" t="s">
         <v>488</v>
@@ -7281,7 +7281,7 @@
         <v>9</v>
       </c>
       <c r="B441" s="3">
-        <v>934</v>
+        <v>9034</v>
       </c>
       <c r="C441" t="s">
         <v>489</v>
@@ -7292,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="B442" s="3">
-        <v>935</v>
+        <v>9035</v>
       </c>
       <c r="C442" t="s">
         <v>492</v>
@@ -7303,7 +7303,7 @@
         <v>9</v>
       </c>
       <c r="B443" s="3">
-        <v>936</v>
+        <v>9036</v>
       </c>
       <c r="C443" t="s">
         <v>490</v>
@@ -7314,7 +7314,7 @@
         <v>9</v>
       </c>
       <c r="B444" s="3">
-        <v>937</v>
+        <v>9037</v>
       </c>
       <c r="C444" t="s">
         <v>491</v>
@@ -7325,7 +7325,7 @@
         <v>10</v>
       </c>
       <c r="B445" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C445" t="s">
         <v>107</v>
@@ -7336,7 +7336,7 @@
         <v>10</v>
       </c>
       <c r="B446" s="3">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="C446" t="s">
         <v>273</v>
@@ -7347,7 +7347,7 @@
         <v>10</v>
       </c>
       <c r="B447" s="3">
-        <v>1002</v>
+        <v>10002</v>
       </c>
       <c r="C447" t="s">
         <v>272</v>
@@ -7358,7 +7358,7 @@
         <v>10</v>
       </c>
       <c r="B448" s="3">
-        <v>1003</v>
+        <v>10003</v>
       </c>
       <c r="C448" t="s">
         <v>271</v>
@@ -7369,7 +7369,7 @@
         <v>10</v>
       </c>
       <c r="B449" s="3">
-        <v>1004</v>
+        <v>10004</v>
       </c>
       <c r="C449" t="s">
         <v>274</v>
@@ -7380,7 +7380,7 @@
         <v>10</v>
       </c>
       <c r="B450" s="3">
-        <v>1005</v>
+        <v>10005</v>
       </c>
       <c r="C450" t="s">
         <v>349</v>
@@ -7391,7 +7391,7 @@
         <v>10</v>
       </c>
       <c r="B451" s="3">
-        <v>1006</v>
+        <v>10006</v>
       </c>
       <c r="C451" t="s">
         <v>276</v>
@@ -7402,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="B452" s="3">
-        <v>1007</v>
+        <v>10007</v>
       </c>
       <c r="C452" t="s">
         <v>278</v>
@@ -7413,7 +7413,7 @@
         <v>10</v>
       </c>
       <c r="B453" s="3">
-        <v>1008</v>
+        <v>10008</v>
       </c>
       <c r="C453" t="s">
         <v>111</v>
@@ -7424,7 +7424,7 @@
         <v>10</v>
       </c>
       <c r="B454" s="3">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="C454" t="s">
         <v>277</v>
@@ -7435,7 +7435,7 @@
         <v>10</v>
       </c>
       <c r="B455" s="3">
-        <v>1010</v>
+        <v>10010</v>
       </c>
       <c r="C455" t="s">
         <v>105</v>
@@ -7446,7 +7446,7 @@
         <v>10</v>
       </c>
       <c r="B456" s="3">
-        <v>1011</v>
+        <v>10011</v>
       </c>
       <c r="C456" t="s">
         <v>109</v>
@@ -7457,7 +7457,7 @@
         <v>576</v>
       </c>
       <c r="B457" s="3">
-        <v>1012</v>
+        <v>10012</v>
       </c>
       <c r="C457" t="s">
         <v>103</v>
@@ -7468,7 +7468,7 @@
         <v>10</v>
       </c>
       <c r="B458" s="3">
-        <v>1013</v>
+        <v>10013</v>
       </c>
       <c r="C458" t="s">
         <v>106</v>
@@ -7479,7 +7479,7 @@
         <v>10</v>
       </c>
       <c r="B459" s="3">
-        <v>1014</v>
+        <v>10014</v>
       </c>
       <c r="C459" t="s">
         <v>110</v>
@@ -7490,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="B460" s="3">
-        <v>1015</v>
+        <v>10015</v>
       </c>
       <c r="C460" t="s">
         <v>613</v>
@@ -7501,7 +7501,7 @@
         <v>10</v>
       </c>
       <c r="B461" s="3">
-        <v>1016</v>
+        <v>10016</v>
       </c>
       <c r="C461" t="s">
         <v>282</v>
@@ -7512,7 +7512,7 @@
         <v>10</v>
       </c>
       <c r="B462" s="3">
-        <v>1017</v>
+        <v>10017</v>
       </c>
       <c r="C462" t="s">
         <v>108</v>
@@ -7523,7 +7523,7 @@
         <v>596</v>
       </c>
       <c r="B463" s="3">
-        <v>1018</v>
+        <v>10018</v>
       </c>
       <c r="C463" t="s">
         <v>189</v>
@@ -7534,7 +7534,7 @@
         <v>10</v>
       </c>
       <c r="B464" s="3">
-        <v>1019</v>
+        <v>10019</v>
       </c>
       <c r="C464" t="s">
         <v>350</v>
@@ -7545,7 +7545,7 @@
         <v>565</v>
       </c>
       <c r="B465" s="3">
-        <v>1020</v>
+        <v>10020</v>
       </c>
       <c r="C465" t="s">
         <v>26</v>
@@ -7556,7 +7556,7 @@
         <v>10</v>
       </c>
       <c r="B466" s="3">
-        <v>1021</v>
+        <v>10021</v>
       </c>
       <c r="C466" t="s">
         <v>112</v>
@@ -7567,7 +7567,7 @@
         <v>592</v>
       </c>
       <c r="B467" s="3">
-        <v>1022</v>
+        <v>10022</v>
       </c>
       <c r="C467" t="s">
         <v>64</v>
@@ -7578,7 +7578,7 @@
         <v>597</v>
       </c>
       <c r="B468" s="3">
-        <v>1023</v>
+        <v>10023</v>
       </c>
       <c r="C468" t="s">
         <v>329</v>
@@ -7589,7 +7589,7 @@
         <v>560</v>
       </c>
       <c r="B469" s="3">
-        <v>1024</v>
+        <v>10024</v>
       </c>
       <c r="C469" t="s">
         <v>113</v>
@@ -7600,7 +7600,7 @@
         <v>587</v>
       </c>
       <c r="B470" s="3">
-        <v>1025</v>
+        <v>10025</v>
       </c>
       <c r="C470" t="s">
         <v>55</v>
@@ -7611,7 +7611,7 @@
         <v>10</v>
       </c>
       <c r="B471" s="3">
-        <v>1026</v>
+        <v>10026</v>
       </c>
       <c r="C471" t="s">
         <v>351</v>
@@ -7622,7 +7622,7 @@
         <v>10</v>
       </c>
       <c r="B472" s="3">
-        <v>1027</v>
+        <v>10027</v>
       </c>
       <c r="C472" t="s">
         <v>353</v>
@@ -7633,7 +7633,7 @@
         <v>576</v>
       </c>
       <c r="B473" s="3">
-        <v>1028</v>
+        <v>10028</v>
       </c>
       <c r="C473" t="s">
         <v>259</v>
@@ -7644,7 +7644,7 @@
         <v>10</v>
       </c>
       <c r="B474" s="3">
-        <v>1029</v>
+        <v>10029</v>
       </c>
       <c r="C474" t="s">
         <v>352</v>
@@ -7655,7 +7655,7 @@
         <v>574</v>
       </c>
       <c r="B475" s="3">
-        <v>1030</v>
+        <v>10030</v>
       </c>
       <c r="C475" t="s">
         <v>38</v>
@@ -7666,7 +7666,7 @@
         <v>555</v>
       </c>
       <c r="B476" s="3">
-        <v>1031</v>
+        <v>10031</v>
       </c>
       <c r="C476" t="s">
         <v>116</v>
@@ -7677,7 +7677,7 @@
         <v>554</v>
       </c>
       <c r="B477" s="3">
-        <v>1032</v>
+        <v>10032</v>
       </c>
       <c r="C477" t="s">
         <v>114</v>
@@ -7688,7 +7688,7 @@
         <v>609</v>
       </c>
       <c r="B478" s="3">
-        <v>1033</v>
+        <v>10033</v>
       </c>
       <c r="C478" t="s">
         <v>117</v>
@@ -7699,7 +7699,7 @@
         <v>601</v>
       </c>
       <c r="B479" s="3">
-        <v>1034</v>
+        <v>10034</v>
       </c>
       <c r="C479" t="s">
         <v>124</v>
@@ -7710,7 +7710,7 @@
         <v>609</v>
       </c>
       <c r="B480" s="3">
-        <v>1035</v>
+        <v>10035</v>
       </c>
       <c r="C480" t="s">
         <v>123</v>
@@ -7721,7 +7721,7 @@
         <v>10</v>
       </c>
       <c r="B481" s="3">
-        <v>1036</v>
+        <v>10036</v>
       </c>
       <c r="C481" t="s">
         <v>279</v>
@@ -7732,7 +7732,7 @@
         <v>10</v>
       </c>
       <c r="B482" s="3">
-        <v>1037</v>
+        <v>10037</v>
       </c>
       <c r="C482" t="s">
         <v>280</v>
@@ -7743,7 +7743,7 @@
         <v>10</v>
       </c>
       <c r="B483" s="3">
-        <v>1038</v>
+        <v>10038</v>
       </c>
       <c r="C483" t="s">
         <v>115</v>
@@ -7754,7 +7754,7 @@
         <v>10</v>
       </c>
       <c r="B484" s="3">
-        <v>1039</v>
+        <v>10039</v>
       </c>
       <c r="C484" t="s">
         <v>281</v>
@@ -7765,7 +7765,7 @@
         <v>10</v>
       </c>
       <c r="B485" s="3">
-        <v>1040</v>
+        <v>10040</v>
       </c>
       <c r="C485" t="s">
         <v>104</v>
@@ -7776,7 +7776,7 @@
         <v>10</v>
       </c>
       <c r="B486" s="3">
-        <v>1041</v>
+        <v>10041</v>
       </c>
       <c r="C486" t="s">
         <v>118</v>
@@ -7787,7 +7787,7 @@
         <v>10</v>
       </c>
       <c r="B487" s="3">
-        <v>1042</v>
+        <v>10042</v>
       </c>
       <c r="C487" t="s">
         <v>120</v>
@@ -7798,7 +7798,7 @@
         <v>10</v>
       </c>
       <c r="B488" s="3">
-        <v>1043</v>
+        <v>10043</v>
       </c>
       <c r="C488" t="s">
         <v>122</v>
@@ -7809,7 +7809,7 @@
         <v>10</v>
       </c>
       <c r="B489" s="3">
-        <v>1044</v>
+        <v>10044</v>
       </c>
       <c r="C489" t="s">
         <v>121</v>
@@ -7820,7 +7820,7 @@
         <v>10</v>
       </c>
       <c r="B490" s="3">
-        <v>1045</v>
+        <v>10045</v>
       </c>
       <c r="C490" t="s">
         <v>119</v>
@@ -7831,7 +7831,7 @@
         <v>10</v>
       </c>
       <c r="B491" s="3">
-        <v>1046</v>
+        <v>10046</v>
       </c>
       <c r="C491" t="s">
         <v>356</v>
@@ -7842,7 +7842,7 @@
         <v>10</v>
       </c>
       <c r="B492" s="3">
-        <v>1047</v>
+        <v>10047</v>
       </c>
       <c r="C492" t="s">
         <v>354</v>
@@ -7853,7 +7853,7 @@
         <v>10</v>
       </c>
       <c r="B493" s="3">
-        <v>1048</v>
+        <v>10048</v>
       </c>
       <c r="C493" t="s">
         <v>355</v>
@@ -7864,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="B494" s="3">
-        <v>1049</v>
+        <v>10049</v>
       </c>
       <c r="C494" t="s">
         <v>58</v>
@@ -7875,7 +7875,7 @@
         <v>10</v>
       </c>
       <c r="B495" s="3">
-        <v>1050</v>
+        <v>10050</v>
       </c>
       <c r="C495" t="s">
         <v>449</v>
@@ -7886,7 +7886,7 @@
         <v>10</v>
       </c>
       <c r="B496" s="3">
-        <v>1051</v>
+        <v>10051</v>
       </c>
       <c r="C496" t="s">
         <v>275</v>
@@ -7897,7 +7897,7 @@
         <v>10</v>
       </c>
       <c r="B497" s="3">
-        <v>1052</v>
+        <v>10052</v>
       </c>
       <c r="C497" t="s">
         <v>493</v>
@@ -7908,7 +7908,7 @@
         <v>10</v>
       </c>
       <c r="B498" s="3">
-        <v>1053</v>
+        <v>10053</v>
       </c>
       <c r="C498" t="s">
         <v>357</v>
@@ -7919,7 +7919,7 @@
         <v>559</v>
       </c>
       <c r="B499" s="3">
-        <v>1054</v>
+        <v>10054</v>
       </c>
       <c r="C499" t="s">
         <v>52</v>
@@ -7930,7 +7930,7 @@
         <v>559</v>
       </c>
       <c r="B500" s="3">
-        <v>1100</v>
+        <v>11000</v>
       </c>
       <c r="C500" t="s">
         <v>52</v>
@@ -7941,7 +7941,7 @@
         <v>592</v>
       </c>
       <c r="B501" s="3">
-        <v>1101</v>
+        <v>11001</v>
       </c>
       <c r="C501" t="s">
         <v>531</v>
@@ -7952,7 +7952,7 @@
         <v>565</v>
       </c>
       <c r="B502" s="3">
-        <v>1102</v>
+        <v>11002</v>
       </c>
       <c r="C502" t="s">
         <v>26</v>
@@ -7963,7 +7963,7 @@
         <v>596</v>
       </c>
       <c r="B503" s="3">
-        <v>1103</v>
+        <v>11003</v>
       </c>
       <c r="C503" t="s">
         <v>189</v>
@@ -7974,7 +7974,7 @@
         <v>606</v>
       </c>
       <c r="B504" s="3">
-        <v>1104</v>
+        <v>11004</v>
       </c>
       <c r="C504" t="s">
         <v>455</v>
@@ -7985,7 +7985,7 @@
         <v>590</v>
       </c>
       <c r="B505" s="3">
-        <v>1105</v>
+        <v>11005</v>
       </c>
       <c r="C505" t="s">
         <v>92</v>
@@ -7996,7 +7996,7 @@
         <v>11</v>
       </c>
       <c r="B506" s="3">
-        <v>1106</v>
+        <v>11006</v>
       </c>
       <c r="C506" t="s">
         <v>347</v>
@@ -8007,7 +8007,7 @@
         <v>11</v>
       </c>
       <c r="B507" s="3">
-        <v>1107</v>
+        <v>11007</v>
       </c>
       <c r="C507" t="s">
         <v>348</v>
@@ -8018,7 +8018,7 @@
         <v>11</v>
       </c>
       <c r="B508" s="3">
-        <v>1108</v>
+        <v>11008</v>
       </c>
       <c r="C508" t="s">
         <v>494</v>
@@ -8029,7 +8029,7 @@
         <v>11</v>
       </c>
       <c r="B509" s="3">
-        <v>1109</v>
+        <v>11009</v>
       </c>
       <c r="C509" t="s">
         <v>495</v>
@@ -8040,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B510" s="3">
-        <v>1110</v>
+        <v>11010</v>
       </c>
       <c r="C510" t="s">
         <v>406</v>
@@ -8051,7 +8051,7 @@
         <v>11</v>
       </c>
       <c r="B511" s="3">
-        <v>1111</v>
+        <v>11011</v>
       </c>
       <c r="C511" t="s">
         <v>405</v>
@@ -8062,7 +8062,7 @@
         <v>610</v>
       </c>
       <c r="B512" s="3">
-        <v>1112</v>
+        <v>11012</v>
       </c>
       <c r="C512" t="s">
         <v>496</v>
@@ -8073,7 +8073,7 @@
         <v>11</v>
       </c>
       <c r="B513" s="3">
-        <v>1113</v>
+        <v>11013</v>
       </c>
       <c r="C513" t="s">
         <v>454</v>
@@ -8084,7 +8084,7 @@
         <v>552</v>
       </c>
       <c r="B514" s="3">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="C514" t="s">
         <v>500</v>
@@ -8095,7 +8095,7 @@
         <v>555</v>
       </c>
       <c r="B515" s="3">
-        <v>1201</v>
+        <v>12001</v>
       </c>
       <c r="C515" t="s">
         <v>497</v>
@@ -8106,7 +8106,7 @@
         <v>554</v>
       </c>
       <c r="B516" s="3">
-        <v>1202</v>
+        <v>12002</v>
       </c>
       <c r="C516" t="s">
         <v>498</v>
@@ -8117,7 +8117,7 @@
         <v>609</v>
       </c>
       <c r="B517" s="3">
-        <v>1203</v>
+        <v>12003</v>
       </c>
       <c r="C517" t="s">
         <v>499</v>
@@ -8128,7 +8128,7 @@
         <v>601</v>
       </c>
       <c r="B518" s="3">
-        <v>1204</v>
+        <v>12004</v>
       </c>
       <c r="C518" t="s">
         <v>124</v>
@@ -8139,7 +8139,7 @@
         <v>609</v>
       </c>
       <c r="B519" s="3">
-        <v>1205</v>
+        <v>12005</v>
       </c>
       <c r="C519" t="s">
         <v>123</v>
@@ -8150,7 +8150,7 @@
         <v>600</v>
       </c>
       <c r="B520" s="3">
-        <v>1206</v>
+        <v>12006</v>
       </c>
       <c r="C520" t="s">
         <v>127</v>
@@ -8161,7 +8161,7 @@
         <v>12</v>
       </c>
       <c r="B521" s="3">
-        <v>1207</v>
+        <v>12007</v>
       </c>
       <c r="C521" t="s">
         <v>407</v>
@@ -8172,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="B522" s="3">
-        <v>1208</v>
+        <v>12008</v>
       </c>
       <c r="C522" t="s">
         <v>284</v>
@@ -8183,7 +8183,7 @@
         <v>12</v>
       </c>
       <c r="B523" s="3">
-        <v>1209</v>
+        <v>12009</v>
       </c>
       <c r="C523" t="s">
         <v>283</v>
@@ -8194,7 +8194,7 @@
         <v>12</v>
       </c>
       <c r="B524" s="3">
-        <v>1210</v>
+        <v>12010</v>
       </c>
       <c r="C524" t="s">
         <v>285</v>
@@ -8205,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="B525" s="3">
-        <v>1211</v>
+        <v>12011</v>
       </c>
       <c r="C525" t="s">
         <v>130</v>
@@ -8216,7 +8216,7 @@
         <v>12</v>
       </c>
       <c r="B526" s="3">
-        <v>1212</v>
+        <v>12012</v>
       </c>
       <c r="C526" t="s">
         <v>128</v>
@@ -8227,7 +8227,7 @@
         <v>12</v>
       </c>
       <c r="B527" s="3">
-        <v>1213</v>
+        <v>12013</v>
       </c>
       <c r="C527" t="s">
         <v>129</v>
@@ -8238,7 +8238,7 @@
         <v>12</v>
       </c>
       <c r="B528" s="3">
-        <v>1214</v>
+        <v>12014</v>
       </c>
       <c r="C528" t="s">
         <v>358</v>
@@ -8249,7 +8249,7 @@
         <v>12</v>
       </c>
       <c r="B529" s="3">
-        <v>1215</v>
+        <v>12015</v>
       </c>
       <c r="C529" t="s">
         <v>125</v>
@@ -8260,7 +8260,7 @@
         <v>12</v>
       </c>
       <c r="B530" s="3">
-        <v>1216</v>
+        <v>12016</v>
       </c>
       <c r="C530" t="s">
         <v>131</v>
@@ -8271,7 +8271,7 @@
         <v>12</v>
       </c>
       <c r="B531" s="3">
-        <v>1217</v>
+        <v>12017</v>
       </c>
       <c r="C531" t="s">
         <v>132</v>
@@ -8282,7 +8282,7 @@
         <v>12</v>
       </c>
       <c r="B532" s="3">
-        <v>1218</v>
+        <v>12018</v>
       </c>
       <c r="C532" t="s">
         <v>133</v>
@@ -8293,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="B533" s="3">
-        <v>1219</v>
+        <v>12019</v>
       </c>
       <c r="C533" t="s">
         <v>137</v>
@@ -8304,7 +8304,7 @@
         <v>12</v>
       </c>
       <c r="B534" s="3">
-        <v>1220</v>
+        <v>12020</v>
       </c>
       <c r="C534" t="s">
         <v>134</v>
@@ -8315,7 +8315,7 @@
         <v>12</v>
       </c>
       <c r="B535" s="3">
-        <v>1221</v>
+        <v>12021</v>
       </c>
       <c r="C535" t="s">
         <v>135</v>
@@ -8326,7 +8326,7 @@
         <v>12</v>
       </c>
       <c r="B536" s="3">
-        <v>1222</v>
+        <v>12022</v>
       </c>
       <c r="C536" t="s">
         <v>138</v>
@@ -8337,7 +8337,7 @@
         <v>12</v>
       </c>
       <c r="B537" s="3">
-        <v>1223</v>
+        <v>12023</v>
       </c>
       <c r="C537" t="s">
         <v>136</v>
@@ -8348,7 +8348,7 @@
         <v>12</v>
       </c>
       <c r="B538" s="3">
-        <v>1224</v>
+        <v>12024</v>
       </c>
       <c r="C538" t="s">
         <v>126</v>
@@ -8359,7 +8359,7 @@
         <v>555</v>
       </c>
       <c r="B539" s="4">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>456</v>
@@ -8370,7 +8370,7 @@
         <v>574</v>
       </c>
       <c r="B540" s="3">
-        <v>1301</v>
+        <v>13001</v>
       </c>
       <c r="C540" t="s">
         <v>38</v>
@@ -8380,8 +8380,8 @@
       <c r="A541" s="6">
         <v>13</v>
       </c>
-      <c r="B541" s="3">
-        <v>1302</v>
+      <c r="B541" s="4">
+        <v>13002</v>
       </c>
       <c r="C541" t="s">
         <v>143</v>
@@ -8391,8 +8391,8 @@
       <c r="A542" s="6">
         <v>13</v>
       </c>
-      <c r="B542" s="4">
-        <v>1303</v>
+      <c r="B542" s="3">
+        <v>13003</v>
       </c>
       <c r="C542" t="s">
         <v>408</v>
@@ -8402,8 +8402,8 @@
       <c r="A543" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B543" s="3">
-        <v>1304</v>
+      <c r="B543" s="4">
+        <v>13004</v>
       </c>
       <c r="C543" t="s">
         <v>207</v>
@@ -8414,7 +8414,7 @@
         <v>608</v>
       </c>
       <c r="B544" s="3">
-        <v>1305</v>
+        <v>13005</v>
       </c>
       <c r="C544" t="s">
         <v>146</v>
@@ -8425,7 +8425,7 @@
         <v>572</v>
       </c>
       <c r="B545" s="4">
-        <v>1306</v>
+        <v>13006</v>
       </c>
       <c r="C545" t="s">
         <v>7</v>
@@ -8436,7 +8436,7 @@
         <v>13</v>
       </c>
       <c r="B546" s="3">
-        <v>1307</v>
+        <v>13007</v>
       </c>
       <c r="C546" t="s">
         <v>144</v>
@@ -8446,8 +8446,8 @@
       <c r="A547" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B547" s="3">
-        <v>1308</v>
+      <c r="B547" s="4">
+        <v>13008</v>
       </c>
       <c r="C547" t="s">
         <v>147</v>
@@ -8457,8 +8457,8 @@
       <c r="A548" s="6">
         <v>13</v>
       </c>
-      <c r="B548" s="4">
-        <v>1309</v>
+      <c r="B548" s="3">
+        <v>13009</v>
       </c>
       <c r="C548" t="s">
         <v>426</v>
@@ -8468,8 +8468,8 @@
       <c r="A549" s="6">
         <v>13</v>
       </c>
-      <c r="B549" s="3">
-        <v>1310</v>
+      <c r="B549" s="4">
+        <v>13010</v>
       </c>
       <c r="C549" t="s">
         <v>148</v>
@@ -8480,7 +8480,7 @@
         <v>13</v>
       </c>
       <c r="B550" s="3">
-        <v>1311</v>
+        <v>13011</v>
       </c>
       <c r="C550" t="s">
         <v>446</v>
@@ -8491,7 +8491,7 @@
         <v>581</v>
       </c>
       <c r="B551" s="4">
-        <v>1312</v>
+        <v>13012</v>
       </c>
       <c r="C551" t="s">
         <v>149</v>
@@ -8502,7 +8502,7 @@
         <v>605</v>
       </c>
       <c r="B552" s="3">
-        <v>1313</v>
+        <v>13013</v>
       </c>
       <c r="C552" t="s">
         <v>150</v>
@@ -8512,8 +8512,8 @@
       <c r="A553" s="6">
         <v>13</v>
       </c>
-      <c r="B553" s="3">
-        <v>1314</v>
+      <c r="B553" s="4">
+        <v>13014</v>
       </c>
       <c r="C553" t="s">
         <v>151</v>
@@ -8523,8 +8523,8 @@
       <c r="A554" s="6">
         <v>13</v>
       </c>
-      <c r="B554" s="4">
-        <v>1315</v>
+      <c r="B554" s="3">
+        <v>13015</v>
       </c>
       <c r="C554" t="s">
         <v>290</v>
@@ -8534,8 +8534,8 @@
       <c r="A555" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B555" s="3">
-        <v>1316</v>
+      <c r="B555" s="4">
+        <v>13016</v>
       </c>
       <c r="C555" t="s">
         <v>264</v>
@@ -8546,7 +8546,7 @@
         <v>13</v>
       </c>
       <c r="B556" s="3">
-        <v>1317</v>
+        <v>13017</v>
       </c>
       <c r="C556" t="s">
         <v>409</v>
@@ -8557,7 +8557,7 @@
         <v>13</v>
       </c>
       <c r="B557" s="4">
-        <v>1318</v>
+        <v>13018</v>
       </c>
       <c r="C557" t="s">
         <v>361</v>
@@ -8568,7 +8568,7 @@
         <v>13</v>
       </c>
       <c r="B558" s="3">
-        <v>1319</v>
+        <v>13019</v>
       </c>
       <c r="C558" t="s">
         <v>359</v>
@@ -8578,8 +8578,8 @@
       <c r="A559" s="6">
         <v>13</v>
       </c>
-      <c r="B559" s="3">
-        <v>1320</v>
+      <c r="B559" s="4">
+        <v>13020</v>
       </c>
       <c r="C559" t="s">
         <v>360</v>
@@ -8589,8 +8589,8 @@
       <c r="A560" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B560" s="4">
-        <v>1321</v>
+      <c r="B560" s="3">
+        <v>13021</v>
       </c>
       <c r="C560" t="s">
         <v>328</v>
@@ -8600,8 +8600,8 @@
       <c r="A561" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B561" s="3">
-        <v>1322</v>
+      <c r="B561" s="4">
+        <v>13022</v>
       </c>
       <c r="C561" t="s">
         <v>410</v>
@@ -8612,7 +8612,7 @@
         <v>13</v>
       </c>
       <c r="B562" s="3">
-        <v>1323</v>
+        <v>13023</v>
       </c>
       <c r="C562" t="s">
         <v>362</v>
@@ -8623,7 +8623,7 @@
         <v>13</v>
       </c>
       <c r="B563" s="4">
-        <v>1324</v>
+        <v>13024</v>
       </c>
       <c r="C563" t="s">
         <v>142</v>
@@ -8634,7 +8634,7 @@
         <v>13</v>
       </c>
       <c r="B564" s="3">
-        <v>1325</v>
+        <v>13025</v>
       </c>
       <c r="C564" t="s">
         <v>292</v>
@@ -8644,8 +8644,8 @@
       <c r="A565" s="6">
         <v>13</v>
       </c>
-      <c r="B565" s="3">
-        <v>1326</v>
+      <c r="B565" s="4">
+        <v>13026</v>
       </c>
       <c r="C565" t="s">
         <v>447</v>
@@ -8655,8 +8655,8 @@
       <c r="A566" s="6">
         <v>13</v>
       </c>
-      <c r="B566" s="4">
-        <v>1327</v>
+      <c r="B566" s="3">
+        <v>13027</v>
       </c>
       <c r="C566" t="s">
         <v>427</v>
@@ -8666,8 +8666,8 @@
       <c r="A567" s="6">
         <v>13</v>
       </c>
-      <c r="B567" s="3">
-        <v>1328</v>
+      <c r="B567" s="4">
+        <v>13028</v>
       </c>
       <c r="C567" t="s">
         <v>542</v>
@@ -8678,7 +8678,7 @@
         <v>13</v>
       </c>
       <c r="B568" s="3">
-        <v>1329</v>
+        <v>13029</v>
       </c>
       <c r="C568" t="s">
         <v>293</v>
@@ -8689,7 +8689,7 @@
         <v>13</v>
       </c>
       <c r="B569" s="4">
-        <v>1330</v>
+        <v>13030</v>
       </c>
       <c r="C569" t="s">
         <v>291</v>
@@ -8700,7 +8700,7 @@
         <v>13</v>
       </c>
       <c r="B570" s="3">
-        <v>1331</v>
+        <v>13031</v>
       </c>
       <c r="C570" t="s">
         <v>153</v>
@@ -8710,8 +8710,8 @@
       <c r="A571" s="6">
         <v>13</v>
       </c>
-      <c r="B571" s="3">
-        <v>1332</v>
+      <c r="B571" s="4">
+        <v>13032</v>
       </c>
       <c r="C571" t="s">
         <v>155</v>
@@ -8721,8 +8721,8 @@
       <c r="A572" s="6">
         <v>13</v>
       </c>
-      <c r="B572" s="4">
-        <v>1333</v>
+      <c r="B572" s="3">
+        <v>13033</v>
       </c>
       <c r="C572" t="s">
         <v>152</v>
@@ -8732,8 +8732,8 @@
       <c r="A573" s="6">
         <v>13</v>
       </c>
-      <c r="B573" s="3">
-        <v>1334</v>
+      <c r="B573" s="4">
+        <v>13034</v>
       </c>
       <c r="C573" t="s">
         <v>154</v>
@@ -8744,7 +8744,7 @@
         <v>13</v>
       </c>
       <c r="B574" s="3">
-        <v>1335</v>
+        <v>13035</v>
       </c>
       <c r="C574" t="s">
         <v>156</v>
@@ -8755,7 +8755,7 @@
         <v>563</v>
       </c>
       <c r="B575" s="4">
-        <v>1336</v>
+        <v>13036</v>
       </c>
       <c r="C575" t="s">
         <v>145</v>
@@ -8766,7 +8766,7 @@
         <v>13</v>
       </c>
       <c r="B576" s="3">
-        <v>1337</v>
+        <v>13037</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>465</v>
@@ -8776,8 +8776,8 @@
       <c r="A577" s="6">
         <v>13</v>
       </c>
-      <c r="B577" s="3">
-        <v>1338</v>
+      <c r="B577" s="4">
+        <v>13038</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>464</v>
@@ -8787,8 +8787,8 @@
       <c r="A578" s="6">
         <v>13</v>
       </c>
-      <c r="B578" s="4">
-        <v>1339</v>
+      <c r="B578" s="3">
+        <v>13039</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>463</v>
@@ -8798,8 +8798,8 @@
       <c r="A579" s="6">
         <v>13</v>
       </c>
-      <c r="B579" s="3">
-        <v>1340</v>
+      <c r="B579" s="4">
+        <v>13040</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>462</v>
@@ -8810,7 +8810,7 @@
         <v>13</v>
       </c>
       <c r="B580" s="3">
-        <v>1341</v>
+        <v>13041</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>461</v>
@@ -8821,7 +8821,7 @@
         <v>584</v>
       </c>
       <c r="B581" s="4">
-        <v>1342</v>
+        <v>13042</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>460</v>
@@ -8832,7 +8832,7 @@
         <v>584</v>
       </c>
       <c r="B582" s="3">
-        <v>1343</v>
+        <v>13043</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>459</v>
@@ -8842,8 +8842,8 @@
       <c r="A583" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B583" s="3">
-        <v>1344</v>
+      <c r="B583" s="4">
+        <v>13044</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>458</v>
@@ -8853,8 +8853,8 @@
       <c r="A584" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B584" s="4">
-        <v>1345</v>
+      <c r="B584" s="3">
+        <v>13045</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>457</v>
@@ -8864,8 +8864,8 @@
       <c r="A585" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B585" s="3">
-        <v>1346</v>
+      <c r="B585" s="4">
+        <v>13046</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>505</v>
@@ -8876,7 +8876,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="3">
-        <v>1347</v>
+        <v>13047</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>506</v>
@@ -8887,7 +8887,7 @@
         <v>584</v>
       </c>
       <c r="B587" s="4">
-        <v>1348</v>
+        <v>13048</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>507</v>
@@ -8898,7 +8898,7 @@
         <v>584</v>
       </c>
       <c r="B588" s="3">
-        <v>1349</v>
+        <v>13049</v>
       </c>
       <c r="C588" t="s">
         <v>54</v>
@@ -8908,8 +8908,8 @@
       <c r="A589" s="6">
         <v>13</v>
       </c>
-      <c r="B589" s="3">
-        <v>1350</v>
+      <c r="B589" s="4">
+        <v>13050</v>
       </c>
       <c r="C589" t="s">
         <v>286</v>
@@ -8919,8 +8919,8 @@
       <c r="A590" s="6">
         <v>13</v>
       </c>
-      <c r="B590" s="4">
-        <v>1351</v>
+      <c r="B590" s="3">
+        <v>13051</v>
       </c>
       <c r="C590" t="s">
         <v>287</v>
@@ -8930,8 +8930,8 @@
       <c r="A591" s="6">
         <v>13</v>
       </c>
-      <c r="B591" s="3">
-        <v>1352</v>
+      <c r="B591" s="4">
+        <v>13052</v>
       </c>
       <c r="C591" t="s">
         <v>425</v>
@@ -8942,7 +8942,7 @@
         <v>13</v>
       </c>
       <c r="B592" s="3">
-        <v>1353</v>
+        <v>13053</v>
       </c>
       <c r="C592" t="s">
         <v>141</v>
@@ -8953,7 +8953,7 @@
         <v>13</v>
       </c>
       <c r="B593" s="4">
-        <v>1354</v>
+        <v>13054</v>
       </c>
       <c r="C593" t="s">
         <v>139</v>
@@ -8964,7 +8964,7 @@
         <v>13</v>
       </c>
       <c r="B594" s="3">
-        <v>1355</v>
+        <v>13055</v>
       </c>
       <c r="C594" t="s">
         <v>140</v>
@@ -8974,8 +8974,8 @@
       <c r="A595" s="6">
         <v>13</v>
       </c>
-      <c r="B595" s="3">
-        <v>1356</v>
+      <c r="B595" s="4">
+        <v>13056</v>
       </c>
       <c r="C595" t="s">
         <v>445</v>
@@ -8985,8 +8985,8 @@
       <c r="A596" s="6">
         <v>13</v>
       </c>
-      <c r="B596" s="4">
-        <v>1357</v>
+      <c r="B596" s="3">
+        <v>13057</v>
       </c>
       <c r="C596" t="s">
         <v>289</v>
@@ -8996,8 +8996,8 @@
       <c r="A597" s="6">
         <v>13</v>
       </c>
-      <c r="B597" s="3">
-        <v>1358</v>
+      <c r="B597" s="4">
+        <v>13058</v>
       </c>
       <c r="C597" t="s">
         <v>288</v>
@@ -9008,7 +9008,7 @@
         <v>13</v>
       </c>
       <c r="B598" s="3">
-        <v>1359</v>
+        <v>13059</v>
       </c>
       <c r="C598" t="s">
         <v>501</v>
@@ -9019,7 +9019,7 @@
         <v>13</v>
       </c>
       <c r="B599" s="4">
-        <v>1360</v>
+        <v>13060</v>
       </c>
       <c r="C599" t="s">
         <v>502</v>
@@ -9030,7 +9030,7 @@
         <v>13</v>
       </c>
       <c r="B600" s="3">
-        <v>1361</v>
+        <v>13061</v>
       </c>
       <c r="C600" t="s">
         <v>503</v>
@@ -9040,8 +9040,8 @@
       <c r="A601" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B601" s="3">
-        <v>1362</v>
+      <c r="B601" s="4">
+        <v>13062</v>
       </c>
       <c r="C601" t="s">
         <v>504</v>
@@ -9052,7 +9052,7 @@
         <v>579</v>
       </c>
       <c r="B602" s="3">
-        <v>1400</v>
+        <v>14000</v>
       </c>
       <c r="C602" t="s">
         <v>534</v>
@@ -9063,7 +9063,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="3">
-        <v>1401</v>
+        <v>14001</v>
       </c>
       <c r="C603" t="s">
         <v>533</v>
@@ -9074,7 +9074,7 @@
         <v>607</v>
       </c>
       <c r="B604" s="3">
-        <v>1402</v>
+        <v>14002</v>
       </c>
       <c r="C604" t="s">
         <v>532</v>
@@ -9085,7 +9085,7 @@
         <v>571</v>
       </c>
       <c r="B605" s="3">
-        <v>1403</v>
+        <v>14003</v>
       </c>
       <c r="C605" t="s">
         <v>9</v>
@@ -9096,7 +9096,7 @@
         <v>579</v>
       </c>
       <c r="B606" s="3">
-        <v>1404</v>
+        <v>14004</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>472</v>
@@ -9107,7 +9107,7 @@
         <v>14</v>
       </c>
       <c r="B607" s="3">
-        <v>1405</v>
+        <v>14005</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>473</v>
@@ -9118,7 +9118,7 @@
         <v>14</v>
       </c>
       <c r="B608" s="3">
-        <v>1406</v>
+        <v>14006</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>474</v>
@@ -9129,7 +9129,7 @@
         <v>14</v>
       </c>
       <c r="B609" s="3">
-        <v>1407</v>
+        <v>14007</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>475</v>
@@ -9140,7 +9140,7 @@
         <v>611</v>
       </c>
       <c r="B610" s="3">
-        <v>1408</v>
+        <v>14008</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>476</v>
@@ -9151,7 +9151,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="3">
-        <v>1409</v>
+        <v>14009</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>508</v>
@@ -9162,7 +9162,7 @@
         <v>14</v>
       </c>
       <c r="B612" s="3">
-        <v>1410</v>
+        <v>14010</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>477</v>
@@ -9173,7 +9173,7 @@
         <v>14</v>
       </c>
       <c r="B613" s="3">
-        <v>1411</v>
+        <v>14011</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>478</v>
@@ -9184,7 +9184,7 @@
         <v>14</v>
       </c>
       <c r="B614" s="3">
-        <v>1412</v>
+        <v>14012</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>479</v>
@@ -9195,7 +9195,7 @@
         <v>14</v>
       </c>
       <c r="B615" s="3">
-        <v>1413</v>
+        <v>14013</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>480</v>
@@ -9206,7 +9206,7 @@
         <v>14</v>
       </c>
       <c r="B616" s="3">
-        <v>1414</v>
+        <v>14014</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>481</v>
@@ -9217,7 +9217,7 @@
         <v>14</v>
       </c>
       <c r="B617" s="3">
-        <v>1415</v>
+        <v>14015</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>482</v>
@@ -9228,7 +9228,7 @@
         <v>610</v>
       </c>
       <c r="B618" s="4">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>513</v>
@@ -9239,7 +9239,7 @@
         <v>15</v>
       </c>
       <c r="B619" s="4">
-        <v>1501</v>
+        <v>15001</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>512</v>
@@ -9250,7 +9250,7 @@
         <v>15</v>
       </c>
       <c r="B620" s="4">
-        <v>1502</v>
+        <v>15002</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>511</v>
@@ -9261,7 +9261,7 @@
         <v>15</v>
       </c>
       <c r="B621" s="4">
-        <v>1503</v>
+        <v>15003</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>514</v>
@@ -9272,7 +9272,7 @@
         <v>15</v>
       </c>
       <c r="B622" s="4">
-        <v>1504</v>
+        <v>15004</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>510</v>
@@ -9283,7 +9283,7 @@
         <v>15</v>
       </c>
       <c r="B623" s="4">
-        <v>1505</v>
+        <v>15005</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>509</v>
@@ -9294,7 +9294,7 @@
         <v>556</v>
       </c>
       <c r="B624" s="4">
-        <v>1600</v>
+        <v>16000</v>
       </c>
       <c r="C624" t="s">
         <v>43</v>
@@ -9305,7 +9305,7 @@
         <v>598</v>
       </c>
       <c r="B625" s="4">
-        <v>1601</v>
+        <v>16001</v>
       </c>
       <c r="C625" t="s">
         <v>515</v>
@@ -9316,7 +9316,7 @@
         <v>589</v>
       </c>
       <c r="B626" s="4">
-        <v>1602</v>
+        <v>16002</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>524</v>
@@ -9327,7 +9327,7 @@
         <v>16</v>
       </c>
       <c r="B627" s="4">
-        <v>1603</v>
+        <v>16003</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>523</v>
@@ -9338,7 +9338,7 @@
         <v>16</v>
       </c>
       <c r="B628" s="4">
-        <v>1604</v>
+        <v>16004</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>522</v>
@@ -9349,7 +9349,7 @@
         <v>16</v>
       </c>
       <c r="B629" s="4">
-        <v>1605</v>
+        <v>16005</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>521</v>
@@ -9360,7 +9360,7 @@
         <v>16</v>
       </c>
       <c r="B630" s="4">
-        <v>1606</v>
+        <v>16006</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>520</v>
@@ -9371,7 +9371,7 @@
         <v>16</v>
       </c>
       <c r="B631" s="4">
-        <v>1607</v>
+        <v>16007</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>519</v>
@@ -9382,7 +9382,7 @@
         <v>16</v>
       </c>
       <c r="B632" s="4">
-        <v>1608</v>
+        <v>16008</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>518</v>
@@ -9393,7 +9393,7 @@
         <v>16</v>
       </c>
       <c r="B633" s="4">
-        <v>1609</v>
+        <v>16009</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>517</v>
@@ -9404,7 +9404,7 @@
         <v>16</v>
       </c>
       <c r="B634" s="4">
-        <v>1610</v>
+        <v>16010</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>525</v>
@@ -9415,7 +9415,7 @@
         <v>16</v>
       </c>
       <c r="B635" s="4">
-        <v>1611</v>
+        <v>16011</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>516</v>
@@ -9426,7 +9426,7 @@
         <v>16</v>
       </c>
       <c r="B636" s="4">
-        <v>1612</v>
+        <v>16012</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>612</v>
